--- a/month-one/projects/KijijiScraper/guitars.xlsx
+++ b/month-one/projects/KijijiScraper/guitars.xlsx
@@ -453,143 +453,143 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PRECISION GUITAR WORX</t>
+          <t>Fender Stratocaster USA 1997 on an MJT 1 Piece Ash Nitro Body</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Please Contact</t>
+          <t>$795.00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/sudbury/precision-guitar-worx/1660305330</t>
+          <t>https://www.kijiji.ca/v-guitar/ottawa/fender-stratocaster-usa-1997-on-an-mjt-1-piece-ash-nitro-body/1703720339</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fender Stratocaster electric guitar</t>
+          <t>PRECISION GUITAR WORX</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>$800.00</t>
+          <t>Please Contact</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/chatham-kent/fender-stratocaster-electric-guitar/1703367868</t>
+          <t>https://www.kijiji.ca/v-guitar/sudbury/precision-guitar-worx/1660305330</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fender Stratocaster USA 1997 on an MJT 1 Piece Ash Nitro Body</t>
+          <t>Fender Stratocaster electric guitar</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>$795.00</t>
+          <t>$800.00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/ottawa/fender-stratocaster-usa-1997-on-an-mjt-1-piece-ash-nitro-body/1703720339</t>
+          <t>https://www.kijiji.ca/v-guitar/chatham-kent/fender-stratocaster-electric-guitar/1703367868</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DIY Guitar Kits, The largest selection of Do it Yourself Guitars</t>
+          <t xml:space="preserve">1974 Gibson L5s Custom </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Please Contact</t>
+          <t>$8,800.00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/markham-york-region/diy-guitar-kits-the-largest-selection-of-do-it-yourself-guitars/1483566448</t>
+          <t>https://www.kijiji.ca/v-guitar/london/1974-gibson-l5s-custom/1703274556</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">1974 Gibson L5s Custom </t>
+          <t>Epiphone Riviera Electric Guitar</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>$8,800.00</t>
+          <t>$699.00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/london/1974-gibson-l5s-custom/1703274556</t>
+          <t>https://www.kijiji.ca/v-guitar/ottawa/epiphone-riviera-electric-guitar/1702114895</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Epiphone Riviera Electric Guitar</t>
+          <t>DIY Guitar Kits, The largest selection of Do it Yourself Guitars</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>$699.00</t>
+          <t>Please Contact</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/ottawa/epiphone-riviera-electric-guitar/1702114895</t>
+          <t>https://www.kijiji.ca/v-guitar/markham-york-region/diy-guitar-kits-the-largest-selection-of-do-it-yourself-guitars/1483566448</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Rocktober Deals on everything music at Ardens Music!</t>
+          <t xml:space="preserve">Acoustic Guitar </t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Please Contact</t>
+          <t>$59.00</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/trenton-on/rocktober-deals-on-everything-music-at-ardens-music/1703961597</t>
+          <t>https://www.kijiji.ca/v-guitar/kitchener-waterloo/acoustic-guitar/1703975807</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Danny Gatton Guitar Tabs Recorded Version</t>
+          <t>Squier Custom Vibe Jaguar</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>$15.00</t>
+          <t>$500.00</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/gatineau/danny-gatton-guitar-tabs-recorded-version/1567709379</t>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/squier-custom-vibe-jaguar/1703975786</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Guitar cases // Étuis  à guitare</t>
+          <t>Guitar Stands</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -599,534 +599,534 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/gatineau/guitar-cases-etuis-a-guitare/1703956078</t>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/guitar-stands/1703975288</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Acoustic guitar</t>
+          <t>Outdoor Guitar™ - Carbon Fibre</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>$380.00</t>
+          <t>$500.00</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/acoustic-guitar/1703961039</t>
+          <t>https://www.kijiji.ca/v-guitar/london/outdoor-guitar-carbon-fibre/1703975094</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Acoustic Guitar </t>
+          <t xml:space="preserve"> Yamaha bass and amplifier </t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>$250.00</t>
+          <t>$450.00</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/kitchener-waterloo/acoustic-guitar/1703960672</t>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/yamaha-bass-and-amplifier/1703974773</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Electric Guitar and Amp</t>
+          <t>Rare &amp; Vintage Aria Hollow-Body Electric Guitar, Japanese-made</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>$280.00</t>
+          <t>$800.00</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/kitchener-waterloo/electric-guitar-and-amp/1703960619</t>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/rare-vintage-aria-hollow-body-electric-guitar-japanese-made/1703974406</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jackson monark</t>
+          <t>Fender Richie Sambora Stratocaster 1993-1995 American</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>$400.00</t>
+          <t>$12,000.00</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/london/jackson-monark/1703960506</t>
+          <t>https://www.kijiji.ca/v-guitar/oshawa-durham-region/fender-richie-sambora-stratocaster-1993-1995-american/1699751382</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>GODIN MULTIAC DUET STEEL STRING GUITAR</t>
+          <t>Fender Malmsteen Stratocaster 2023</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>$1,250.00</t>
+          <t>$3,000.00</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/kitchener-waterloo/godin-multiac-duet-steel-string-guitar/1703959080</t>
+          <t>https://www.kijiji.ca/v-guitar/oshawa-durham-region/fender-malmsteen-stratocaster-2023/1699754196</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Wanted 70s Fender Mustang</t>
+          <t xml:space="preserve">guitar Jackson </t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Please Contact</t>
+          <t>$400.00</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/hamilton/wanted-70s-fender-mustang/1703959042</t>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/guitar-jackson/1703973939</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1978 VINTAGE 10" CTS SPECIAL DESIGN SPEAKER 8 OHM GREEN GOLD</t>
+          <t>1967 NORMA EG-470-3 ... needs some TLC</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>$65.00</t>
+          <t>$395.00</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/chatham-kent/1978-vintage-10-cts-special-design-speaker-8-ohm-green-gold/1691543371</t>
+          <t>https://www.kijiji.ca/v-guitar/mississauga-peel-region/1967-norma-eg-470-3-needs-some-tlc/1703973789</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Epiphone The Treasure Joe Bonamassa Signature FireBird 1</t>
+          <t xml:space="preserve">Norman B15 (6) Acoustic Dreadnaught </t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Please Contact</t>
+          <t>$265.00</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/gatineau/epiphone-the-treasure-joe-bonamassa-signature-firebird-1/1703958325</t>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/norman-b15-6-acoustic-dreadnaught/1703973529</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>COLE CLARK FL 12 STRING GUITAR</t>
+          <t>Fender Fender Paramount PO-220E Orchestra - Natural</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>$1,400.00</t>
+          <t>$949.00</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/kitchener-waterloo/cole-clark-fl-12-string-guitar/1703958233</t>
+          <t>https://www.kijiji.ca/v-guitar/oakville-halton-region/fender-fender-paramount-po-220e-orchestra-natural/1703973413</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Vintage 1950's Stella Harmony H929 Parlor Guitar</t>
+          <t>Gretsch Corvette Deluxe vintage</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>$250.00</t>
+          <t>$1,600.00</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/oakville-halton-region/vintage-1950s-stella-harmony-h929-parlor-guitar/1703958061</t>
+          <t>https://www.kijiji.ca/v-guitar/london/gretsch-corvette-deluxe-vintage/1703973263</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Epiphone Les Paul Studio</t>
+          <t>ENYA NOVA GO CARBON FIBER GUITAR (BLACK)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>$450.00</t>
+          <t>$195.00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/ottawa/epiphone-les-paul-studio/1699858644</t>
+          <t>https://www.kijiji.ca/v-guitar/peterborough/enya-nova-go-carbon-fiber-guitar-black/1703949316</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Jackson Mark Morton Dominion Pro</t>
+          <t>Gretsch G2655T-P90 Streamliner Center Block Jr. Double-Cut P90</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>$750.00</t>
+          <t>$829.00</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/ottawa/jackson-mark-morton-dominion-pro/1703956408</t>
+          <t>https://www.kijiji.ca/v-guitar/london/gretsch-g2655t-p90-streamliner-center-block-jr-double-cut-p90/1703973128</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Acoustic guitar</t>
+          <t>Guild Surfliner Newark St. Series 6 String Electric Guitar</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>$120.00</t>
+          <t>$699.00</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/acoustic-guitar/1703956157</t>
+          <t>https://www.kijiji.ca/v-guitar/london/guild-surfliner-newark-st-series-6-string-electric-guitar/1703972811</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gibson Les Paul Studio 2008 </t>
+          <t>"FENDER" New Lightweight Electric Guitar Gig Bag</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>$1,500.00</t>
+          <t>$20.00</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/muskoka/gibson-les-paul-studio-2008/1703955625</t>
+          <t>https://www.kijiji.ca/v-guitar/oakville-halton-region/fender-new-lightweight-electric-guitar-gig-bag/1585144588</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Yamaha Revstar Pro - MIJ - Gold Top P90</t>
+          <t>Guild D-40 standard Natural Dreadnought Acoustic</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>$1,800.00</t>
+          <t>$3,299.00</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/yamaha-revstar-pro-mij-gold-top-p90/1703955561</t>
+          <t>https://www.kijiji.ca/v-guitar/london/guild-d-40-standard-natural-dreadnought-acoustic/1703972535</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Hand made Nuhn J Series Guitar - Sage Green Metallic Relic, P90s</t>
+          <t>Epiphone Les Paul Standard Pro</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>$1,800.00</t>
+          <t>$650.00</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/stratford-on/hand-made-nuhn-j-series-guitar-sage-green-metallic-relic-p90s/1703955104</t>
+          <t>https://www.kijiji.ca/v-guitar/st-catharines/epiphone-les-paul-standard-pro/1703972505</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Boss Chromatic Tuner TU-12H</t>
+          <t>Guild Polara Night Edition Guitar</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Please Contact</t>
+          <t>$789.00</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/kingston-on/boss-chromatic-tuner-tu-12h/1703955027</t>
+          <t>https://www.kijiji.ca/v-guitar/london/guild-polara-night-edition-guitar/1703972403</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>kala ziricote concert ukulele</t>
+          <t>Guild Surfliner HH Electric guitar</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>$400.00</t>
+          <t>$699.00</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/kala-ziricote-concert-ukulele/1703954916</t>
+          <t>https://www.kijiji.ca/v-guitar/london/guild-surfliner-hh-electric-guitar/1703972263</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2012 Gibson Les Paul Standard in Excellent Condition</t>
+          <t>Ovation Acousitc Bass CEB44-1N</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>$2,300.00</t>
+          <t>$940.00</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/kitchener-waterloo/2012-gibson-les-paul-standard-in-excellent-condition/1695086125</t>
+          <t>https://www.kijiji.ca/v-guitar/london/ovation-acousitc-bass-ceb44-1n/1703972097</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Squier bullet</t>
+          <t xml:space="preserve">fender jazz Fretless </t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>$140.00</t>
+          <t>$1,100.00</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/mississauga-peel-region/squier-bullet/1695772765</t>
+          <t>https://www.kijiji.ca/v-guitar/st-catharines/fender-jazz-fretless/1703972045</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sebring JS 20 Jazz Archtop Guitar</t>
+          <t>1979 Marlin Classical Guitar</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>$750.00</t>
+          <t>$200.00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/barrie/sebring-js-20-jazz-archtop-guitar/1703953740</t>
+          <t>https://www.kijiji.ca/v-guitar/barrie/1979-marlin-classical-guitar/1703972036</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2013 PRS Custom 24 guitar in rare Livingston Lemon drop</t>
+          <t>Guild Starfire I Double Cutaway-Vintage Walnut</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>$4,250.00</t>
+          <t>$808.00</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/oakville-halton-region/2013-prs-custom-24-guitar-in-rare-livingston-lemon-drop/1703953685</t>
+          <t>https://www.kijiji.ca/v-guitar/london/guild-starfire-i-double-cutaway-vintage-walnut/1703972017</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Devlin DV-300 Guitar-Estate Sale</t>
+          <t>Univox P Bass</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>$225.00</t>
+          <t>$900.00</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/ottawa/devlin-dv-300-guitar-estate-sale/1703953267</t>
+          <t>https://www.kijiji.ca/v-guitar/london/univox-p-bass/1703971926</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Yamaha F325 acoustic guitar w/stand</t>
+          <t>Electric Guitar</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>$220.00</t>
+          <t>$60.00</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/mississauga-peel-region/yamaha-f325-acoustic-guitar-w-stand/1703952223</t>
+          <t>https://www.kijiji.ca/v-guitar/kitchener-waterloo/electric-guitar/1703971849</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Ibanez AX120 Electric Guitar-Estate Sale</t>
+          <t xml:space="preserve">1994 Ibanez SR800 </t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>$175.00</t>
+          <t>$1,000.00</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/ottawa/ibanez-ax120-electric-guitar-estate-sale/1703953133</t>
+          <t>https://www.kijiji.ca/v-guitar/st-catharines/1994-ibanez-sr800/1703971587</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Classic Ibanez DPL 10 PAN DELAY made in Japan </t>
+          <t>YAMAHA ACOUSTIC GUITAR WITH GIG BAG</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>$150.00</t>
+          <t>$250.00</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/classic-ibanez-dpl-10-pan-delay-made-in-japan/1669129280</t>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/yamaha-acoustic-guitar-with-gig-bag/1703971457</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Yamaha RBX270J Bass guitar-Estate Sale</t>
+          <t>Pink Floyd The Wall Guitar Tab Book</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>$275.00</t>
+          <t>$20.00</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/ottawa/yamaha-rbx270j-bass-guitar-estate-sale/1703953025</t>
+          <t>https://www.kijiji.ca/v-guitar/mississauga-peel-region/pink-floyd-the-wall-guitar-tab-book/1700173326</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>GWL Washburn "Vince Neil'" Guitar-Estate Sale</t>
+          <t>Sigma DASG7+ Acoustic Guitar</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>$175.00</t>
+          <t>$1,299.00</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/ottawa/gwl-washburn-vince-neil-guitar-estate-sale/1703952912</t>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/sigma-dasg7-acoustic-guitar/1703971152</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Ibanez Rg5170B-BK Prestige MIJ</t>
+          <t>Duesenberg Starplayer TV</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>$2,450.00</t>
+          <t>$3,400.00</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/ottawa/ibanez-rg5170b-bk-prestige-mij/1703952903</t>
+          <t>https://www.kijiji.ca/v-guitar/oakville-halton-region/duesenberg-starplayer-tv/1703971070</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Squier Strat Guitar-Estate Sale</t>
+          <t>Danelectro 59x12 string electric guitar</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>$275.00</t>
+          <t>$899.00</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/ottawa/squier-strat-guitar-estate-sale/1703952658</t>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/danelectro-59x12-string-electric-guitar/1703970938</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tone King </t>
+          <t>Danelectro 56 Baritone Electric Guitar</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>$1,150.00</t>
+          <t>$829.00</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/tone-king/1703952633</t>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/danelectro-56-baritone-electric-guitar/1703970874</t>
         </is>
       </c>
     </row>
@@ -1150,7 +1150,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PRECISION GUITAR WORX</t>
+          <t>DIY Guitar Kits, The largest selection of Do it Yourself Guitars</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1160,58 +1160,58 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/sudbury/precision-guitar-worx/1660305330</t>
+          <t>https://www.kijiji.ca/v-guitar/markham-york-region/diy-guitar-kits-the-largest-selection-of-do-it-yourself-guitars/1483566448</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Fender Stratocaster electric guitar</t>
+          <t>PRECISION GUITAR WORX</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>$800.00</t>
+          <t>Please Contact</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/chatham-kent/fender-stratocaster-electric-guitar/1703367868</t>
+          <t>https://www.kijiji.ca/v-guitar/sudbury/precision-guitar-worx/1660305330</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Fender Stratocaster USA 1997 on an MJT 1 Piece Ash Nitro Body</t>
+          <t>Fender Stratocaster electric guitar</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>$795.00</t>
+          <t>$800.00</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/ottawa/fender-stratocaster-usa-1997-on-an-mjt-1-piece-ash-nitro-body/1703720339</t>
+          <t>https://www.kijiji.ca/v-guitar/chatham-kent/fender-stratocaster-electric-guitar/1703367868</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>DIY Guitar Kits, The largest selection of Do it Yourself Guitars</t>
+          <t>Fender Stratocaster USA 1997 on an MJT 1 Piece Ash Nitro Body</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Please Contact</t>
+          <t>$795.00</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/markham-york-region/diy-guitar-kits-the-largest-selection-of-do-it-yourself-guitars/1483566448</t>
+          <t>https://www.kijiji.ca/v-guitar/ottawa/fender-stratocaster-usa-1997-on-an-mjt-1-piece-ash-nitro-body/1703720339</t>
         </is>
       </c>
     </row>
@@ -1235,1844 +1235,1845 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Epiphone S-210 'Batwing Strat Style' guitar-Estate Sale</t>
+          <t>Lag Sauvage - Auditorium Cutaway Acoustic-Electric Guitar</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>$175.00</t>
+          <t>$1,102.00</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/ottawa/epiphone-s-210-batwing-strat-style-guitar-estate-sale/1703951457</t>
+          <t>https://www.kijiji.ca/v-guitar/kitchener-waterloo/lag-sauvage-auditorium-cutaway-acoustic-electric-guitar/1703970066</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Aria Pan P23 Electric Guitar-Estate Sale</t>
+          <t>Gretsch G5232T Electromatic Double Jet FT with Bigsby-Broadway</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>$325.00</t>
+          <t>$1,018.00</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/ottawa/aria-pan-p23-electric-guitar-estate-sale/1703951339</t>
+          <t>https://www.kijiji.ca/v-guitar/kitchener-waterloo/gretsch-g5232t-electromatic-double-jet-ft-with-bigsby-broadway/1703969962</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SG Standard '61 Maestro Vibrola - Vintage Cherry</t>
+          <t>Vintage Gibson G3 Pickups in Luthier made Grabber style Bass</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>$2,500.00</t>
+          <t>Please Contact</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/owen-sound/sg-standard-61-maestro-vibrola-vintage-cherry/1695869809</t>
+          <t>https://www.kijiji.ca/v-guitar/owen-sound/vintage-gibson-g3-pickups-in-luthier-made-grabber-style-bass/1702122763</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Gibson Les Paul Supreme copy</t>
+          <t>Gretsch G9201 Honey Dipper Brass Body Resonator Guitar</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>$600.00</t>
+          <t>$1,018.00</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/sarnia/gibson-les-paul-supreme-copy/1703950387</t>
+          <t>https://www.kijiji.ca/v-guitar/kitchener-waterloo/gretsch-g9201-honey-dipper-brass-body-resonator-guitar/1703969858</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1989 Gibson Les Paul Standard With Bill Lawrence Pickups Guitar</t>
+          <t>Ovation electro acoustic guitar CS24P-FMYR</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>$7,000.00</t>
+          <t>$899.00</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/markham-york-region/1989-gibson-les-paul-standard-with-bill-lawrence-pickups-guitar/1689017799</t>
+          <t>https://www.kijiji.ca/v-guitar/kitchener-waterloo/ovation-electro-acoustic-guitar-cs24p-fmyr/1703969681</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t xml:space="preserve">2016 Gibson Les Paul - Limited Iced Tea Burst </t>
+          <t>Vintage Acoustic Guitar</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>$3,000.00</t>
+          <t>$400.00</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/2016-gibson-les-paul-limited-iced-tea-burst/1685130740</t>
+          <t>https://www.kijiji.ca/v-guitar/sudbury/vintage-acoustic-guitar/1703969520</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Washburn Acoustic Guitar</t>
+          <t>Lag Wings of Metal Auditorium Acoustic Guitar</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>$300.00</t>
+          <t>$889.00</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/sarnia/washburn-acoustic-guitar/1703950198</t>
+          <t>https://www.kijiji.ca/v-guitar/kitchener-waterloo/lag-wings-of-metal-auditorium-acoustic-guitar/1703969510</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
+          <t>Babicz Steven Wilson Signature Acoustic Electric Guitar</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>$4,000.00</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/kitchener-waterloo/babicz-steven-wilson-signature-acoustic-electric-guitar/1703969426</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">musical instruments </t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Please Contact</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/kawartha-lakes/musical-instruments/1703969372</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Taylor GS mini Mahogany with Gig bag</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>$850.00</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/taylor-gs-mini-mahogany-with-gig-bag/1703969228</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2005 Ibanez BTB 6 string bass</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>$900.00</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/kitchener-waterloo/2005-ibanez-btb-6-string-bass/1703968828</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2022 Eric Clapton Signature Series Fender Stratocaster</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>$2,800.00</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/london/2022-eric-clapton-signature-series-fender-stratocaster/1703968804</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Cole Clark AN2EC-BLBL Acoustic/Electric Guitar</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>$3,400.00</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/kitchener-waterloo/cole-clark-an2ec-blbl-acoustic-electric-guitar/1703968754</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Gretsch G2210 Streamliner Junior Jet Club-Imperial Stain</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>$503.00</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/hamilton/gretsch-g2210-streamliner-junior-jet-club-imperial-stain/1703968511</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Guild Polara Solid Body Electric Guitar. Phantom Green</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>$789.00</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/hamilton/guild-polara-solid-body-electric-guitar-phantom-green/1703968266</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Guild Polara Solid Body Electric Guitar. Blue Steel</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>$789.00</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/hamilton/guild-polara-solid-body-electric-guitar-blue-steel/1703967734</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Guild Starfire I Bass Vintage Walnut</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>$975.00</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/hamilton/guild-starfire-i-bass-vintage-walnut/1703967665</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Guild Jumbo Junior Acoustic Bass with built in Fishman pickup.</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>$789.00</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/hamilton/guild-jumbo-junior-acoustic-bass-with-built-in-fishman-pickup/1703967453</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Yamaha FG 700ms acoustic guitar</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/hamilton/yamaha-fg-700ms-acoustic-guitar/1703967294</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Trade for an acoustic guitar (Read description)</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Swap/Trade</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/oshawa-durham-region/trade-for-an-acoustic-guitar-read-description/1703967034</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Fender Fat Stratocaster made in Mexico 1999</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>$800.00</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/ottawa/fender-fat-stratocaster-made-in-mexico-1999/1696148048</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Yamaha ERG121C-PF Guitar-Estate Sale</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>$80.00</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/ottawa/yamaha-erg121c-pf-guitar-estate-sale/1703966690</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Vantage 728GDT Guitar-For Parts and/or Repair</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>$80.00</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/ottawa/vantage-728gdt-guitar-for-parts-and-or-repair/1703966447</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Ibanez 7 String</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>$350.00</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/muskoka/ibanez-7-string/1703966401</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Limited Edition 2014 60th Anniversary Aztec Gold Stratocaster</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>$2,400.00</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/london/limited-edition-2014-60th-anniversary-aztec-gold-stratocaster/1699270610</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2014 Limited Edition 60th anniversary Aztec gold
+Stratocaster</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>$2,400.00</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/grand-bend/2014-limited-edition-60th-anniversary-aztec-gold-stratocaster/1699268920</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>The Epiphone full set valve junior &amp; speakers &amp; Pasifika Yamaha</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>$1,400.00</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/london/the-epiphone-full-set-valve-junior-speakers-pasifika-yamaha/1703956860</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>epiphone Guitar $60</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>$60.00</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/epiphone-guitar-60/1703965991</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2 Acoustic Soundhole Pickups</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>$50.00</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/north-bay/2-acoustic-soundhole-pickups/1698837075</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Tele guitar</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>$800.00</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/hamilton/tele-guitar/1700125018</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Cort Guitar + Case + Stand</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>$300.00</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/cort-guitar-case-stand/1703964674</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2011 Gibson Les Paul Studio</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>$1,500.00</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/ottawa/2011-gibson-les-paul-studio/1703964341</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dean HollyWood Cool Guitar </t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>$599.00</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/dean-hollywood-cool-guitar/1703964205</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Epiphone Frontier Masterbilt</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>$995.00</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/oakville-halton-region/epiphone-frontier-masterbilt/1703963917</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Epiphone Riviera Electric Guitar</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>$699.00</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/ottawa/epiphone-riviera-electric-guitar/1702114895</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>DIY Guitar Kits, The largest selection of Do it Yourself Guitars</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Please Contact</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/markham-york-region/diy-guitar-kits-the-largest-selection-of-do-it-yourself-guitars/1483566448</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1974 Gibson L5s Custom </t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>$8,800.00</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/london/1974-gibson-l5s-custom/1703274556</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>PRECISION GUITAR WORX</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Please Contact</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/sudbury/precision-guitar-worx/1660305330</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Fender Stratocaster electric guitar</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>$800.00</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/chatham-kent/fender-stratocaster-electric-guitar/1703367868</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Fender Stratocaster USA 1997 on an MJT 1 Piece Ash Nitro Body</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>$795.00</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/ottawa/fender-stratocaster-usa-1997-on-an-mjt-1-piece-ash-nitro-body/1703720339</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Danny Gatton Guitar Tabs Recorded Version</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>$15.00</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/gatineau/danny-gatton-guitar-tabs-recorded-version/1567709379</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Guitar cases // Étuis  à guitare</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>$30.00</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/gatineau/guitar-cases-etuis-a-guitare/1703956078</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Acoustic guitar</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>$380.00</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/acoustic-guitar/1703961039</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acoustic Guitar </t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>$250.00</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/kitchener-waterloo/acoustic-guitar/1703960672</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Electric Guitar and Amp</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>$280.00</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/kitchener-waterloo/electric-guitar-and-amp/1703960619</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>jackson monark</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>$400.00</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/london/jackson-monark/1703960506</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>GODIN MULTIAC DUET STEEL STRING GUITAR</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>$1,250.00</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/kitchener-waterloo/godin-multiac-duet-steel-string-guitar/1703959080</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Wanted 70s Fender Mustang</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Please Contact</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/hamilton/wanted-70s-fender-mustang/1703959042</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>1978 VINTAGE 10" CTS SPECIAL DESIGN SPEAKER 8 OHM GREEN GOLD</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>$65.00</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/chatham-kent/1978-vintage-10-cts-special-design-speaker-8-ohm-green-gold/1691543371</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Epiphone The Treasure Joe Bonamassa Signature FireBird 1</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Please Contact</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/gatineau/epiphone-the-treasure-joe-bonamassa-signature-firebird-1/1703958325</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>COLE CLARK FL 12 STRING GUITAR</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>$1,400.00</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/kitchener-waterloo/cole-clark-fl-12-string-guitar/1703958233</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Vintage 1950's Stella Harmony H929 Parlor Guitar</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>$250.00</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/oakville-halton-region/vintage-1950s-stella-harmony-h929-parlor-guitar/1703958061</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Epiphone Les Paul Studio</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>$450.00</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/ottawa/epiphone-les-paul-studio/1699858644</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Jackson Mark Morton Dominion Pro</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>$750.00</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/ottawa/jackson-mark-morton-dominion-pro/1703956408</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Acoustic guitar</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>$120.00</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/acoustic-guitar/1703956157</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Gibson Les Paul Studio 2008</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>$1,500.00</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/muskoka/gibson-les-paul-studio-2008/1703955625</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Yamaha Revstar Pro - MIJ - Gold Top P90</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>$1,800.00</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/yamaha-revstar-pro-mij-gold-top-p90/1703955561</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Hand made Nuhn J Series Guitar - Sage Green Metallic Relic, P90s</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>$1,800.00</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/stratford-on/hand-made-nuhn-j-series-guitar-sage-green-metallic-relic-p90s/1703955104</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Boss Chromatic Tuner TU-12H</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Please Contact</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/kingston-on/boss-chromatic-tuner-tu-12h/1703955027</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>kala ziricote concert ukulele</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>$400.00</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/kala-ziricote-concert-ukulele/1703954916</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2012 Gibson Les Paul Standard in Excellent Condition</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>$2,300.00</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/kitchener-waterloo/2012-gibson-les-paul-standard-in-excellent-condition/1695086125</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Squier bullet</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>$140.00</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/mississauga-peel-region/squier-bullet/1695772765</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Sebring JS 20 Jazz Archtop Guitar</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>$750.00</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/barrie/sebring-js-20-jazz-archtop-guitar/1703953740</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2013 PRS Custom 24 guitar in rare Livingston Lemon drop</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>$4,250.00</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/oakville-halton-region/2013-prs-custom-24-guitar-in-rare-livingston-lemon-drop/1703953685</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Devlin DV-300 Guitar-Estate Sale</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>$225.00</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/ottawa/devlin-dv-300-guitar-estate-sale/1703953267</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Yamaha F325 acoustic guitar w/stand</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>$220.00</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/mississauga-peel-region/yamaha-f325-acoustic-guitar-w-stand/1703952223</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Ibanez AX120 Electric Guitar-Estate Sale</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>$175.00</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/ottawa/ibanez-ax120-electric-guitar-estate-sale/1703953133</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Classic Ibanez DPL 10 PAN DELAY made in Japan </t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/classic-ibanez-dpl-10-pan-delay-made-in-japan/1669129280</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Yamaha RBX270J Bass guitar-Estate Sale</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>$275.00</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/ottawa/yamaha-rbx270j-bass-guitar-estate-sale/1703953025</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>GWL Washburn "Vince Neil'" Guitar-Estate Sale</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>$175.00</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/ottawa/gwl-washburn-vince-neil-guitar-estate-sale/1703952912</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Ibanez Rg5170B-BK Prestige MIJ</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>$2,450.00</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/ottawa/ibanez-rg5170b-bk-prestige-mij/1703952903</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Squier Strat Guitar-Estate Sale</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>$275.00</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/ottawa/squier-strat-guitar-estate-sale/1703952658</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tone King </t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>$1,150.00</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/tone-king/1703952633</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Espana 335 Style Guitar-Estate Sale</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>$325.00</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/ottawa/espana-335-style-guitar-estate-sale/1703952563</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>DIY Guitar Kits, The largest selection of Do it Yourself Guitars</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Please Contact</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/markham-york-region/diy-guitar-kits-the-largest-selection-of-do-it-yourself-guitars/1483566448</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Epiphone Riviera Electric Guitar</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>$699.00</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/ottawa/epiphone-riviera-electric-guitar/1702114895</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Fender Stratocaster USA 1997 on an MJT 1 Piece Ash Nitro Body</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>$795.00</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/ottawa/fender-stratocaster-usa-1997-on-an-mjt-1-piece-ash-nitro-body/1703720339</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Fender Stratocaster electric guitar</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>$800.00</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/chatham-kent/fender-stratocaster-electric-guitar/1703367868</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>PRECISION GUITAR WORX</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Please Contact</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/sudbury/precision-guitar-worx/1660305330</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1974 Gibson L5s Custom </t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>$8,800.00</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/london/1974-gibson-l5s-custom/1703274556</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Aria Pan P23 Electric Guitar-Estate Sale</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>$325.00</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/ottawa/aria-pan-p23-electric-guitar-estate-sale/1703951339</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>SG Standard '61 Maestro Vibrola - Vintage Cherry</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>$2,500.00</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/owen-sound/sg-standard-61-maestro-vibrola-vintage-cherry/1695869809</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Gibson Les Paul Supreme copy</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>$600.00</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/sarnia/gibson-les-paul-supreme-copy/1703950387</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>1989 Gibson Les Paul Standard With Bill Lawrence Pickups Guitar</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>$7,000.00</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/markham-york-region/1989-gibson-les-paul-standard-with-bill-lawrence-pickups-guitar/1689017799</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2016 Gibson Les Paul - Limited Iced Tea Burst </t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>$3,000.00</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/2016-gibson-les-paul-limited-iced-tea-burst/1685130740</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Washburn Acoustic Guitar</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>$300.00</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-guitar/sarnia/washburn-acoustic-guitar/1703950198</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
           <t xml:space="preserve">Seagull Entourage Acoustic Electric Guitar 
 </t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B134" t="inlineStr">
         <is>
           <t>$400.00</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C134" t="inlineStr">
         <is>
           <t>https://www.kijiji.ca/v-guitar/city-of-toronto/seagull-entourage-acoustic-electric-guitar/1703950116</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Steve’s music </t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>$20.00</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/steve-s-music/1703950112</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>2023 Gibson SG 61</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>$2,280.00</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/windsor-area-on/2023-gibson-sg-61/1703931756</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>EP Les Paul ES PRO</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>$550.00</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/london/ep-les-paul-es-pro/1703935183</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>PRS custom 24</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Swap/Trade</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/st-catharines/prs-custom-24/1703946008</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Epiphone Les Paul Studio - Chameleon </t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>$250.00</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/oshawa-durham-region/epiphone-les-paul-studio-chameleon/1703942327</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Fender Jazz bass "Longhorn" made in the USA in 1992</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>$1,300.00</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/mississauga-peel-region/fender-jazz-bass-longhorn-made-in-the-usa-in-1992/1703949563</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>ENYA NOVA GO CARBON FIBER GUITAR (BLACK)</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>$195.00</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/oshawa-durham-region/enya-nova-go-carbon-fiber-guitar-black/1703949316</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>ENYA NOVA GO CARBON FIBER GUITAR (BLACK)</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>$195.00</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/kawartha-lakes/enya-nova-go-carbon-fiber-guitar-black/1703949281</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Yorkville Guitar Stand</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>$25.00</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/ottawa/yorkville-guitar-stand/1666558733</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Guitar cable </t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>$30.00</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/guitar-cable/1703949218</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Fender American Professional Stratocaster</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>$1,700.00</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/ottawa/fender-american-professional-stratocaster/1703948962</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gibson guitar </t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>$850.00</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/gibson-guitar/1703948811</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Fender Parts Stratocaster</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>$800.00</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/trenton-on/fender-parts-stratocaster/1685960465</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>FREE SHIPPING! Ukulele Mahogany Finish from $59.00</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Please Contact</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/free-shipping-ukulele-mahogany-finish-from-59-00/1703946268</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Vantage Electric Guitar</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>$65.00</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/mississauga-peel-region/vantage-electric-guitar/1703946229</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>WASHBURN  AMP $35.</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>$35.00</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/windsor-area-on/washburn-amp-35/1703946213</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>PEAVEY  212 AMP.  $235....obo.</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>$235.00</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/windsor-area-on/peavey-212-amp-235-obo/1703945476</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Steinberger spirit gt pro deluxe- left handed</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>$570.00</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/st-catharines/steinberger-spirit-gt-pro-deluxe-left-handed/1703945046</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Bass Player Magazines</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>$50.00</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/bass-player-magazines/1695993241</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Fender Gig Bag Soft Case for  Guitars Black Nylon $20</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>$20.00</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/fender-gig-bag-soft-case-for-guitars-black-nylon-20/1695992883</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Fender Stratocaster Guitar with accesdories</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>$2,000.00</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/belleville/fender-stratocaster-guitar-with-accesdories/1700036029</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Dobro/Resonator/Lap Steel Guitar Squareneck</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Please Contact</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/peterborough/dobro-resonator-lap-steel-guitar-squareneck/1703943783</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>AXL Les Paul Junior-style Guitar</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>$150.00</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/st-catharines/axl-les-paul-junior-style-guitar/1703943735</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Fender Telecaster with Bigsby</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>$1,200.00</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/fender-telecaster-with-bigsby/1694660739</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Silvertone 26873 MIJ</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>$600.00</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/silvertone-26873-mij/1703942784</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>NEW - Epiphone FT-100 Acoustic Guitar - Vintage Sunburst</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>$220.00</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/mississauga-peel-region/new-epiphone-ft-100-acoustic-guitar-vintage-sunburst/1703942537</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Epiphone Riviera Electric Guitar</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>$699.00</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/ottawa/epiphone-riviera-electric-guitar/1702114895</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>Fender Stratocaster USA 1997 on an MJT 1 Piece Ash Nitro Body</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>$795.00</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/ottawa/fender-stratocaster-usa-1997-on-an-mjt-1-piece-ash-nitro-body/1703720339</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1974 Gibson L5s Custom </t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>$8,800.00</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/london/1974-gibson-l5s-custom/1703274556</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Fender Stratocaster electric guitar</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>$800.00</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/chatham-kent/fender-stratocaster-electric-guitar/1703367868</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>PRECISION GUITAR WORX</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Please Contact</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/sudbury/precision-guitar-worx/1660305330</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>DIY Guitar Kits, The largest selection of Do it Yourself Guitars</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Please Contact</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/markham-york-region/diy-guitar-kits-the-largest-selection-of-do-it-yourself-guitars/1483566448</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Highland Albion Electric Guitar</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>$400.00</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/oakville-halton-region/highland-albion-electric-guitar/1703940657</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Jackson Mick Thomson Soloist SL2 Pro</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>$1,300.00</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/jackson-mick-thomson-soloist-sl2-pro/1703940595</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Cort Guitar</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>$220.00</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/barrie/cort-guitar/1700132272</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>GWL ACOUSTIC GUITAR PACK</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>$130.00</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/mississauga-peel-region/gwl-acoustic-guitar-pack/1646394734</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Donner Full Size Acoustic Guitar for Adult Beginners - 41'' Cuta</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>$189.00</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/hamilton/donner-full-size-acoustic-guitar-for-adult-beginners-41-cuta/1689614409</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>41 inch Left Handed Acoustic Electric Guitar Kit Full Size Cutaw</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>$130.00</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/hamilton/41-inch-left-handed-acoustic-electric-guitar-kit-full-size-cutaw/1689614689</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>Rosefinch Classical Guitar Acoustic Guitar 4/4 Full Size 39 inch</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>$90.00</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/hamilton/rosefinch-classical-guitar-acoustic-guitar-4-4-full-size-39-inch/1694752575</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>Acoustic Martin Guitar</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>$1,500.00</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/kenora/acoustic-martin-guitar/1703940044</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>Left Handed Squier Affinity Telecaster Guitar</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>$275.00</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/st-catharines/left-handed-squier-affinity-telecaster-guitar/1700109922</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>Acoustic Guitar with Built In Electric Tuner</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>$170.00</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/brockville/acoustic-guitar-with-built-in-electric-tuner/1703939363</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>LTD Phoenix 200 Electric Guitar</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>$800.00</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/oakville-halton-region/ltd-phoenix-200-electric-guitar/1584338407</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>Gibson SG Tribute, Vintage Cherry Satin</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>$1,000.00</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/kitchener-waterloo/gibson-sg-tribute-vintage-cherry-satin/1701190738</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>Gibson SG Tribute, Vintage Cherry Satin</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>$1,000.00</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/kitchener-waterloo/gibson-sg-tribute-vintage-cherry-satin/1703936319</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>1990's Fender  Korean Squire Stratocaster Signed by Jeff Healey</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>$300.00</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/barrie/1990s-fender-korean-squire-stratocaster-signed-by-jeff-healey/1703939060</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>Robson Electric Guitar</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>$50.00</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/oakville-halton-region/robson-electric-guitar/1703938680</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>Guitar straps</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>$15.00</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/ottawa/guitar-straps/1698464987</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>Fender Classic Player Stratocaster 50’s</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>$900.00</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/london/fender-classic-player-stratocaster-50-s/1703937821</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>5 string harley benton acoustic bass guitar</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>$250.00</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/windsor-area-on/5-string-harley-benton-acoustic-bass-guitar/1703937696</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>Strat SSS Maple Neck Rosewood Fingerboard Electric Guitar Wood</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>$200.00</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/strat-sss-maple-neck-rosewood-fingerboard-electric-guitar-wood/1700114168</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>Strat SSS Maple Neck Rosewood Fingerboard Electric Guitar SB</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>$200.00</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/markham-york-region/strat-sss-maple-neck-rosewood-fingerboard-electric-guitar-sb/1700114054</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>Strat SSS Maple Neck Rosewood Fingerboard Electric Guitar Black</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>$200.00</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/markham-york-region/strat-sss-maple-neck-rosewood-fingerboard-electric-guitar-black/1700113957</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>Sire R3 DZ NT Acoustic Electric Guitar</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>$300.00</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/mississauga-peel-region/sire-r3-dz-nt-acoustic-electric-guitar/1678300694</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>Art &amp; Lutherie Americana Natural EQ Acoustic Electric Guitar</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>$235.00</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/art-lutherie-americana-natural-eq-acoustic-electric-guitar/1690611864</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>Breedlive USA Concerto Signature</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>$2,299.00</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/hamilton/breedlive-usa-concerto-signature/1703936275</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>Reverend Guitars Gil Parris Signature Guitar Roasted Maple</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>$2,299.00</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/london/reverend-guitars-gil-parris-signature-guitar-roasted-maple/1669040689</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>Reverend Guitars Billy Corgan Signature Z-One, Midnight Black</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>$2,049.00</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/london/reverend-guitars-billy-corgan-signature-z-one-midnight-black/1669040696</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Breedlove USA Concerto </t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>$2,499.00</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/hamilton/breedlove-usa-concerto/1703936080</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>Vintage 5 MINUTE GUITAR BOOK 1926</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>$5.00</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/ottawa/vintage-5-minute-guitar-book-1926/1681861384</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>Vintage VS6 Electric Guitar</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>$200.00</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/st-catharines/vintage-vs6-electric-guitar/1703935825</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>strat loaded pickguard</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>$80.00</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/strat-loaded-pickguard/1703935763</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>Jay Turser Cleopatra Electric Guitar</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>$200.00</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/st-catharines/jay-turser-cleopatra-electric-guitar/1703935694</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>Godin Session Guitar</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>$600.00</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/st-catharines/godin-session-guitar/1703935633</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>Harley Benton Short scale bass</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>$200.00</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/ottawa/harley-benton-short-scale-bass/1703935529</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>Washburn Acoustic Guitar</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>$300.00</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/st-catharines/washburn-acoustic-guitar/1703935463</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>PRECISION GUITAR WORX</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>Please Contact</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/sudbury/precision-guitar-worx/1660305330</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1974 Gibson L5s Custom </t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>$8,800.00</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/london/1974-gibson-l5s-custom/1703274556</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>Epiphone Riviera Electric Guitar</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>$699.00</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/ottawa/epiphone-riviera-electric-guitar/1702114895</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>DIY Guitar Kits, The largest selection of Do it Yourself Guitars</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>Please Contact</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/markham-york-region/diy-guitar-kits-the-largest-selection-of-do-it-yourself-guitars/1483566448</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>Fender Stratocaster electric guitar</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>$800.00</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/chatham-kent/fender-stratocaster-electric-guitar/1703367868</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>Fender Stratocaster USA 1997 on an MJT 1 Piece Ash Nitro Body</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>$795.00</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/ottawa/fender-stratocaster-usa-1997-on-an-mjt-1-piece-ash-nitro-body/1703720339</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>Stratacastor - Natural Wood Body</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>$550.00</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/stratacastor-natural-wood-body/1703933744</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>(FREE) Breedlove guitar stickers - 2 available</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/free-breedlove-guitar-stickers-2-available/1699967415</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>Epiphone ES339 Hollow Body</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>$550.00</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/ottawa/epiphone-es339-hollow-body/1703933444</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>Upgraded Epiphone Dot 335 Cherry w/ Bigsby and Hardshell Case</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>$950.00</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/upgraded-epiphone-dot-335-cherry-w-bigsby-and-hardshell-case/1703933419</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>Loaded Stratocaster Pickguard</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>$120.00</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/kingston-on/loaded-stratocaster-pickguard/1703933214</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>Vintage BC Rich Acoustic/ Electric Guitar $400 OBO</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>$400.00</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/oakville-halton-region/vintage-bc-rich-acoustic-electric-guitar-400-obo/1677958647</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>Kent 12 string guitar shell</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-guitar/oakville-halton-region/kent-12-string-guitar-shell/1699782467</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Stratocaster US Body</t>
+          <t xml:space="preserve">Steve’s music </t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>$900.00</t>
+          <t>$20.00</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/stratocaster-us-body/1703932738</t>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/steve-s-music/1703950112</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Fender 12-string acoustic/electric guitar</t>
+          <t>2023 Gibson SG 61</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>$300.00</t>
+          <t>$2,280.00</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/oakville-halton-region/fender-12-string-acoustic-electric-guitar/1703932447</t>
+          <t>https://www.kijiji.ca/v-guitar/windsor-area-on/2023-gibson-sg-61/1703931756</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Gibson Memphis ES-339 (2017)</t>
+          <t>EP Les Paul ES PRO</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>$3,100.00</t>
+          <t>$550.00</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/markham-york-region/gibson-memphis-es-339-2017/1703931931</t>
+          <t>https://www.kijiji.ca/v-guitar/london/ep-les-paul-es-pro/1703935183</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t xml:space="preserve">acoustic guitar </t>
+          <t>PRS custom 24</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>$200.00</t>
+          <t>Swap/Trade</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/thunder-bay/acoustic-guitar/1703931504</t>
+          <t>https://www.kijiji.ca/v-guitar/st-catharines/prs-custom-24/1703946008</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Kent Mandolin</t>
+          <t xml:space="preserve">Epiphone Les Paul Studio - Chameleon </t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Please Contact</t>
+          <t>$250.00</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/thunder-bay/kent-mandolin/1703931415</t>
+          <t>https://www.kijiji.ca/v-guitar/oshawa-durham-region/epiphone-les-paul-studio-chameleon/1703942327</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t xml:space="preserve">Orange cabinet </t>
+          <t>Fender Jazz bass "Longhorn" made in the USA in 1992</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>$1,350.00</t>
+          <t>$1,300.00</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/orange-cabinet/1703930663</t>
+          <t>https://www.kijiji.ca/v-guitar/mississauga-peel-region/fender-jazz-bass-longhorn-made-in-the-usa-in-1992/1703949563</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Like New Epiphone Slash AFD Les Paul Special II Outfit</t>
+          <t>ENYA NOVA GO CARBON FIBER GUITAR (BLACK)</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>$350.00</t>
+          <t>$195.00</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/brantford/like-new-epiphone-slash-afd-les-paul-special-ii-outfit/1703930662</t>
+          <t>https://www.kijiji.ca/v-guitar/kawartha-lakes/enya-nova-go-carbon-fiber-guitar-black/1703949281</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2000 Fender Stratocaster w/USA pickups</t>
+          <t>Yorkville Guitar Stand</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>$950.00</t>
+          <t>$25.00</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/ottawa/2000-fender-stratocaster-w-usa-pickups/1703926158</t>
+          <t>https://www.kijiji.ca/v-guitar/ottawa/yorkville-guitar-stand/1666558733</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Ibanez Bass</t>
+          <t xml:space="preserve">Guitar cable </t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>$200.00</t>
+          <t>$30.00</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/thunder-bay/ibanez-bass/1703930191</t>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/guitar-cable/1703949218</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Ibanez IC420FM Iceman - Violin Sunburst w/ Gig Bag</t>
+          <t>Fender American Professional Stratocaster</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>$1,119.00</t>
+          <t>$1,700.00</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/ibanez-ic420fm-iceman-violin-sunburst-w-gig-bag/1703930097</t>
+          <t>https://www.kijiji.ca/v-guitar/ottawa/fender-american-professional-stratocaster/1703948962</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Fender Sixty Six (rare)</t>
+          <t xml:space="preserve">Gibson guitar </t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>$1,100.00</t>
+          <t>$850.00</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/hamilton/fender-sixty-six-rare/1695808787</t>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/gibson-guitar/1703948811</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Fender Special Edition Custom HH FMT Telecaster</t>
+          <t>Fender Parts Stratocaster</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>$1,100.00</t>
+          <t>$800.00</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/hamilton/fender-special-edition-custom-hh-fmt-telecaster/1689710211</t>
+          <t>https://www.kijiji.ca/v-guitar/trenton-on/fender-parts-stratocaster/1685960465</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Les Paul Custom - Prophecy Plus EX  MS</t>
+          <t>FREE SHIPPING! Ukulele Mahogany Finish from $59.00</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>$900.00</t>
+          <t>Please Contact</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/hamilton/les-paul-custom-prophecy-plus-ex-ms/1684315256</t>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/free-shipping-ukulele-mahogany-finish-from-59-00/1703946268</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Fender Amplifier - 68 Custom Vibro Champ Reverb, 120V</t>
+          <t>Vantage Electric Guitar</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>$1,150.00</t>
+          <t>$65.00</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/mississauga-peel-region/fender-amplifier-68-custom-vibro-champ-reverb-120v/1703929415</t>
+          <t>https://www.kijiji.ca/v-guitar/mississauga-peel-region/vantage-electric-guitar/1703946229</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Les Paul epiphone limited edition slash gold top</t>
+          <t>WASHBURN  AMP $35.</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>$800.00</t>
+          <t>$35.00</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/mississauga-peel-region/les-paul-epiphone-limited-edition-slash-gold-top/1703929245</t>
+          <t>https://www.kijiji.ca/v-guitar/windsor-area-on/washburn-amp-35/1703946213</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2013 Suhr Classic S</t>
+          <t>PEAVEY  212 AMP.  $235....obo.</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>$3,900.00</t>
+          <t>$235.00</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/ottawa/2013-suhr-classic-s/1703929092</t>
+          <t>https://www.kijiji.ca/v-guitar/windsor-area-on/peavey-212-amp-235-obo/1703945476</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Hudson Kingfisher Acoustic Guitar for sale (UK Brand)</t>
+          <t>Steinberger spirit gt pro deluxe- left handed</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>$900.00</t>
+          <t>$570.00</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/ottawa/hudson-kingfisher-acoustic-guitar-for-sale-uk-brand/1703928108</t>
+          <t>https://www.kijiji.ca/v-guitar/st-catharines/steinberger-spirit-gt-pro-deluxe-left-handed/1703945046</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>FIREFLY Guitar and Amp</t>
+          <t>Bass Player Magazines</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>$300.00</t>
+          <t>$50.00</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/hamilton/firefly-guitar-and-amp/1700122803</t>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/bass-player-magazines/1695993241</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t xml:space="preserve">gretsch 2655T </t>
+          <t>Fender Gig Bag Soft Case for  Guitars Black Nylon $20</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>$600.00</t>
+          <t>$20.00</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/st-catharines/gretsch-2655t/1703927833</t>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/fender-gig-bag-soft-case-for-guitars-black-nylon-20/1695992883</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>sell or maybe trade guitars and acces</t>
+          <t>Fender Stratocaster Guitar with accesdories</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Please Contact</t>
+          <t>$2,000.00</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/oshawa-durham-region/sell-or-maybe-trade-guitars-and-acces/1703927818</t>
+          <t>https://www.kijiji.ca/v-guitar/belleville/fender-stratocaster-guitar-with-accesdories/1700036029</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Martin Dreadnought jr. Acoustic</t>
+          <t>Dobro/Resonator/Lap Steel Guitar Squareneck</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>$600.00</t>
+          <t>Please Contact</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/oshawa-durham-region/martin-dreadnought-jr-acoustic/1703927427</t>
+          <t>https://www.kijiji.ca/v-guitar/peterborough/dobro-resonator-lap-steel-guitar-squareneck/1703943783</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>BC Rich Warlock "beast" body art series 2002 limited edition</t>
+          <t>AXL Les Paul Junior-style Guitar</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -3082,143 +3083,143 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/sudbury/bc-rich-warlock-beast-body-art-series-2002-limited-edition/1703927231</t>
+          <t>https://www.kijiji.ca/v-guitar/st-catharines/axl-les-paul-junior-style-guitar/1703943735</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Acoustic guitar</t>
+          <t>Fender Telecaster with Bigsby</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>$650.00</t>
+          <t>$1,200.00</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/oshawa-durham-region/acoustic-guitar/1703926886</t>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/fender-telecaster-with-bigsby/1694660739</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>TAYLOR 314CE - NATURAL W/ CASE</t>
+          <t>Silvertone 26873 MIJ</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>$3,399.00</t>
+          <t>$600.00</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/trenton-on/taylor-314ce-natural-w-case/1703926560</t>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/silvertone-26873-mij/1703942784</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Ukulele is available for sale</t>
+          <t>NEW - Epiphone FT-100 Acoustic Guitar - Vintage Sunburst</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>$45.00</t>
+          <t>$220.00</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/kitchener-waterloo/ukulele-is-available-for-sale/1575920889</t>
+          <t>https://www.kijiji.ca/v-guitar/mississauga-peel-region/new-epiphone-ft-100-acoustic-guitar-vintage-sunburst/1703942537</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>YAMAHA   FG - 75   GUITAR    $ 300</t>
+          <t xml:space="preserve">Schecter Hellraiser Extreme </t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>$300.00</t>
+          <t>$1,400.00</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/hamilton/yamaha-fg-75-guitar-300/1703925754</t>
+          <t>https://www.kijiji.ca/v-guitar/ottawa/schecter-hellraiser-extreme/1686661893</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Classical Guitar KAWAI G-150E</t>
+          <t>electric guitar</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>$435.00</t>
+          <t>$275.00</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/classical-guitar-kawai-g-150e/1703925740</t>
+          <t>https://www.kijiji.ca/v-guitar/hamilton/electric-guitar/1703942222</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>PRECISION GUITAR WORX</t>
+          <t xml:space="preserve">1974 Gibson L5s Custom </t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Please Contact</t>
+          <t>$8,800.00</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/sudbury/precision-guitar-worx/1660305330</t>
+          <t>https://www.kijiji.ca/v-guitar/london/1974-gibson-l5s-custom/1703274556</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Epiphone Riviera Electric Guitar</t>
+          <t>PRECISION GUITAR WORX</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>$699.00</t>
+          <t>Please Contact</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/ottawa/epiphone-riviera-electric-guitar/1702114895</t>
+          <t>https://www.kijiji.ca/v-guitar/sudbury/precision-guitar-worx/1660305330</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Fender Stratocaster USA 1997 on an MJT 1 Piece Ash Nitro Body</t>
+          <t>Epiphone Riviera Electric Guitar</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>$795.00</t>
+          <t>$699.00</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/ottawa/fender-stratocaster-usa-1997-on-an-mjt-1-piece-ash-nitro-body/1703720339</t>
+          <t>https://www.kijiji.ca/v-guitar/ottawa/epiphone-riviera-electric-guitar/1702114895</t>
         </is>
       </c>
     </row>
@@ -3259,245 +3260,245 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t xml:space="preserve">1974 Gibson L5s Custom </t>
+          <t>Fender Stratocaster USA 1997 on an MJT 1 Piece Ash Nitro Body</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>$8,800.00</t>
+          <t>$795.00</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/london/1974-gibson-l5s-custom/1703274556</t>
+          <t>https://www.kijiji.ca/v-guitar/ottawa/fender-stratocaster-usa-1997-on-an-mjt-1-piece-ash-nitro-body/1703720339</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Fender Strat or Tele Hard Shell Case</t>
+          <t>GWL ACOUSTIC GUITAR PACK</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>$100.00</t>
+          <t>$130.00</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/oakville-halton-region/fender-strat-or-tele-hard-shell-case/1703924943</t>
+          <t>https://www.kijiji.ca/v-guitar/mississauga-peel-region/gwl-acoustic-guitar-pack/1646394734</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>guitar for sale</t>
+          <t>Donner Full Size Acoustic Guitar for Adult Beginners - 41'' Cuta</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>$200.00</t>
+          <t>$189.00</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/st-catharines/guitar-for-sale/1703924724</t>
+          <t>https://www.kijiji.ca/v-guitar/hamilton/donner-full-size-acoustic-guitar-for-adult-beginners-41-cuta/1689614409</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Vintage 80's Fender USA Case for Strat/Tele</t>
+          <t>41 inch Left Handed Acoustic Electric Guitar Kit Full Size Cutaw</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>$150.00</t>
+          <t>$130.00</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/oakville-halton-region/vintage-80s-fender-usa-case-for-strat-tele/1703924396</t>
+          <t>https://www.kijiji.ca/v-guitar/hamilton/41-inch-left-handed-acoustic-electric-guitar-kit-full-size-cutaw/1689614689</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Guitar Gear</t>
+          <t>Rosefinch Classical Guitar Acoustic Guitar 4/4 Full Size 39 inch</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>$50.00</t>
+          <t>$90.00</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/sarnia/guitar-gear/1699976268</t>
+          <t>https://www.kijiji.ca/v-guitar/hamilton/rosefinch-classical-guitar-acoustic-guitar-4-4-full-size-39-inch/1694752575</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Taylor Electric Acoustic GS Mini Guitar</t>
+          <t>Acoustic Martin Guitar</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>$825.00</t>
+          <t>$1,500.00</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/taylor-electric-acoustic-gs-mini-guitar/1703924240</t>
+          <t>https://www.kijiji.ca/v-guitar/kenora/acoustic-martin-guitar/1703940044</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Ltd 256</t>
+          <t>Left Handed Squier Affinity Telecaster Guitar</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>$475.00</t>
+          <t>$275.00</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/ltd-256/1703923993</t>
+          <t>https://www.kijiji.ca/v-guitar/st-catharines/left-handed-squier-affinity-telecaster-guitar/1700109922</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>FENDER SQUIER BASS GUITAR</t>
+          <t>Acoustic Guitar with Built In Electric Tuner</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>$290.00</t>
+          <t>$170.00</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/london/fender-squier-bass-guitar/1703923948</t>
+          <t>https://www.kijiji.ca/v-guitar/brockville/acoustic-guitar-with-built-in-electric-tuner/1703939363</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Fender Squier Stratocaster &amp; Fender Frontman 10G Amp</t>
+          <t>LTD Phoenix 200 Electric Guitar</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>$300.00</t>
+          <t>$800.00</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/sudbury/fender-squier-stratocaster-fender-frontman-10g-amp/1703923689</t>
+          <t>https://www.kijiji.ca/v-guitar/oakville-halton-region/ltd-phoenix-200-electric-guitar/1584338407</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Left Handed Jackson Rhoads JS32</t>
+          <t>Gibson SG Tribute, Vintage Cherry Satin</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>$450.00</t>
+          <t>$1,000.00</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/kitchener-waterloo/left-handed-jackson-rhoads-js32/1703923464</t>
+          <t>https://www.kijiji.ca/v-guitar/kitchener-waterloo/gibson-sg-tribute-vintage-cherry-satin/1701190738</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yamaha FG-403MS Acoustic Guitar </t>
+          <t>Gibson SG Tribute, Vintage Cherry Satin</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>$140.00</t>
+          <t>$1,000.00</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/yamaha-fg-403ms-acoustic-guitar/1703923110</t>
+          <t>https://www.kijiji.ca/v-guitar/kitchener-waterloo/gibson-sg-tribute-vintage-cherry-satin/1703936319</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Fender Squier Elecrric and Amp Combo</t>
+          <t>1990's Fender  Korean Squire Stratocaster Signed by Jeff Healey</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>$250.00</t>
+          <t>$300.00</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/fender-squier-elecrric-and-amp-combo/1703922599</t>
+          <t>https://www.kijiji.ca/v-guitar/barrie/1990s-fender-korean-squire-stratocaster-signed-by-jeff-healey/1703939060</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Fender HotRod Telecaster</t>
+          <t>Robson Electric Guitar</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>$2,000.00</t>
+          <t>$50.00</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/st-catharines/fender-hotrod-telecaster/1703922428</t>
+          <t>https://www.kijiji.ca/v-guitar/oakville-halton-region/robson-electric-guitar/1703938680</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Gibson Les Paul Tribute guitar</t>
+          <t>Fender Classic Player Stratocaster 50’s</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>$1,200.00</t>
+          <t>$900.00</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/st-catharines/gibson-les-paul-tribute-guitar/1703922000</t>
+          <t>https://www.kijiji.ca/v-guitar/london/fender-classic-player-stratocaster-50-s/1703937821</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Denver acoustic bass</t>
+          <t>5 string harley benton acoustic bass guitar</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -3507,14 +3508,14 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/woodstock-on/denver-acoustic-bass/1703921599</t>
+          <t>https://www.kijiji.ca/v-guitar/windsor-area-on/5-string-harley-benton-acoustic-bass-guitar/1703937696</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Les Paul Epiphone electric guitar with rocksmith bundle</t>
+          <t>Strat SSS Maple Neck Rosewood Fingerboard Electric Guitar Wood</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -3524,371 +3525,371 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/oshawa-durham-region/les-paul-epiphone-electric-guitar-with-rocksmith-bundle/1703921125</t>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/strat-sss-maple-neck-rosewood-fingerboard-electric-guitar-wood/1700114168</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Fender Stratocaster with Hard Case</t>
+          <t>Strat SSS Maple Neck Rosewood Fingerboard Electric Guitar SB</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>$500.00</t>
+          <t>$200.00</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/fender-stratocaster-with-hard-case/1703903818</t>
+          <t>https://www.kijiji.ca/v-guitar/markham-york-region/strat-sss-maple-neck-rosewood-fingerboard-electric-guitar-sb/1700114054</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>2013 Fender American Deluxe Dimension Bass</t>
+          <t>Strat SSS Maple Neck Rosewood Fingerboard Electric Guitar Black</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>$2,000.00</t>
+          <t>$200.00</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/ottawa/2013-fender-american-deluxe-dimension-bass/1703920677</t>
+          <t>https://www.kijiji.ca/v-guitar/markham-york-region/strat-sss-maple-neck-rosewood-fingerboard-electric-guitar-black/1700113957</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>La Patrie All Solid Classical Guitar with Hard Shell Case</t>
+          <t>Sire R3 DZ NT Acoustic Electric Guitar</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>$750.00</t>
+          <t>$300.00</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/london/la-patrie-all-solid-classical-guitar-with-hard-shell-case/1703920153</t>
+          <t>https://www.kijiji.ca/v-guitar/mississauga-peel-region/sire-r3-dz-nt-acoustic-electric-guitar/1678300694</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Squier Affinity Stratocaster Guitar</t>
+          <t>Art &amp; Lutherie Americana Natural EQ Acoustic Electric Guitar</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>$150.00</t>
+          <t>$235.00</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/st-catharines/squier-affinity-stratocaster-guitar/1703862998</t>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/art-lutherie-americana-natural-eq-acoustic-electric-guitar/1690611864</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>BeaverCreek 1/2 Size Guitar &amp; carrying bag &amp; Quick Start Book</t>
+          <t>Breedlive USA Concerto Signature</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>$150.00</t>
+          <t>$2,299.00</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/markham-york-region/beavercreek-1-2-size-guitar-carrying-bag-quick-start-book/1674730989</t>
+          <t>https://www.kijiji.ca/v-guitar/hamilton/breedlive-usa-concerto-signature/1703936275</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Beaver Creek 1/2 Size Guitar &amp; carrying bag &amp; QuickStart Book</t>
+          <t>Reverend Guitars Gil Parris Signature Guitar Roasted Maple</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>$150.00</t>
+          <t>$2,299.00</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/markham-york-region/beaver-creek-1-2-size-guitar-carrying-bag-quickstart-book/1674730871</t>
+          <t>https://www.kijiji.ca/v-guitar/london/reverend-guitars-gil-parris-signature-guitar-roasted-maple/1669040689</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>1989 Gibson Pickups, Vintage, Post-PAF</t>
+          <t>Reverend Guitars Billy Corgan Signature Z-One, Midnight Black</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>$650.00</t>
+          <t>$2,049.00</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/mississauga-peel-region/1989-gibson-pickups-vintage-post-paf/1703917134</t>
+          <t>https://www.kijiji.ca/v-guitar/london/reverend-guitars-billy-corgan-signature-z-one-midnight-black/1669040696</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>PRS SE CE24 with gig bag!</t>
+          <t xml:space="preserve">Breedlove USA Concerto </t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>$939.00</t>
+          <t>$2,499.00</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/trenton-on/prs-se-ce24-with-gig-bag/1703919239</t>
+          <t>https://www.kijiji.ca/v-guitar/hamilton/breedlove-usa-concerto/1703936080</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Fender American Vintage 2 - Stratocaster!</t>
+          <t>Vintage 5 MINUTE GUITAR BOOK 1926</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>$3,049.00</t>
+          <t>$5.00</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/trenton-on/fender-american-vintage-2-stratocaster/1703919031</t>
+          <t>https://www.kijiji.ca/v-guitar/ottawa/vintage-5-minute-guitar-book-1926/1681861384</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Seymour Duncan Classic Stack Plus For Strat</t>
+          <t>Vintage VS6 Electric Guitar</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>$70.00</t>
+          <t>$200.00</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/mississauga-peel-region/seymour-duncan-classic-stack-plus-for-strat/1703918469</t>
+          <t>https://www.kijiji.ca/v-guitar/st-catharines/vintage-vs6-electric-guitar/1703935825</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>1952 Gibson J45 Sunburst</t>
+          <t>strat loaded pickguard</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>$8,500.00</t>
+          <t>$80.00</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/1952-gibson-j45-sunburst/1703918265</t>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/strat-loaded-pickguard/1703935763</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>P.R.S. S2 Standard 24 Satin USA</t>
+          <t>Jay Turser Cleopatra Electric Guitar</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>$1,250.00</t>
+          <t>$200.00</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/mississauga-peel-region/p-r-s-s2-standard-24-satin-usa/1703918159</t>
+          <t>https://www.kijiji.ca/v-guitar/st-catharines/jay-turser-cleopatra-electric-guitar/1703935694</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Fender Telecaster Pickups - Hand Wound - Vineham</t>
+          <t>Godin Session Guitar</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>$140.00</t>
+          <t>$600.00</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/mississauga-peel-region/fender-telecaster-pickups-hand-wound-vineham/1703918154</t>
+          <t>https://www.kijiji.ca/v-guitar/st-catharines/godin-session-guitar/1703935633</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Fender Squier Telecaster Standard 2018 Excellent.</t>
+          <t>Harley Benton Short scale bass</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>$325.00</t>
+          <t>$200.00</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/ottawa/fender-squier-telecaster-standard-2018-excellent/1703918108</t>
+          <t>https://www.kijiji.ca/v-guitar/ottawa/harley-benton-short-scale-bass/1703935529</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Jay Turser Vintage Series Bass Guitar w/ Case</t>
+          <t>Washburn Acoustic Guitar</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>$375.00</t>
+          <t>$300.00</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/ottawa/jay-turser-vintage-series-bass-guitar-w-case/1482896864</t>
+          <t>https://www.kijiji.ca/v-guitar/st-catharines/washburn-acoustic-guitar/1703935463</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Boutique Guitars</t>
+          <t>strat rosewood neck</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>$4,500.00</t>
+          <t>$80.00</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/london/boutique-guitars/1703917873</t>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/strat-rosewood-neck/1703935300</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Fender FSR Deluxe Telecaster</t>
+          <t>strat body</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>$800.00</t>
+          <t>$100.00</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/ottawa/fender-fsr-deluxe-telecaster/1703917805</t>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/strat-body/1703935124</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Extreme Thrash Metal-Play It with This Rare Pro Gear</t>
+          <t>Ibanez ATK 300 Bass Guitar</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Please Contact</t>
+          <t>$700.00</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/extreme-thrash-metal-play-it-with-this-rare-pro-gear/1703916647</t>
+          <t>https://www.kijiji.ca/v-guitar/st-catharines/ibanez-atk-300-bass-guitar/1703934832</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>1992 Made in Japan Squier Strat</t>
+          <t xml:space="preserve">Epiphone Les Paul Special </t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>$500.00</t>
+          <t>$300.00</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/brantford/1992-made-in-japan-squier-strat/1703916385</t>
+          <t>https://www.kijiji.ca/v-guitar/napanee/epiphone-les-paul-special/1703934474</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Epiphone Riviera Electric Guitar</t>
+          <t>Fender Stratocaster electric guitar</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>$699.00</t>
+          <t>$800.00</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/ottawa/epiphone-riviera-electric-guitar/1702114895</t>
+          <t>https://www.kijiji.ca/v-guitar/chatham-kent/fender-stratocaster-electric-guitar/1703367868</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>PRECISION GUITAR WORX</t>
+          <t>Epiphone Riviera Electric Guitar</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Please Contact</t>
+          <t>$699.00</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/sudbury/precision-guitar-worx/1660305330</t>
+          <t>https://www.kijiji.ca/v-guitar/ottawa/epiphone-riviera-electric-guitar/1702114895</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>DIY Guitar Kits, The largest selection of Do it Yourself Guitars</t>
+          <t>PRECISION GUITAR WORX</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -3898,1187 +3899,1187 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/markham-york-region/diy-guitar-kits-the-largest-selection-of-do-it-yourself-guitars/1483566448</t>
+          <t>https://www.kijiji.ca/v-guitar/sudbury/precision-guitar-worx/1660305330</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Fender Stratocaster USA 1997 on an MJT 1 Piece Ash Nitro Body</t>
+          <t xml:space="preserve">1974 Gibson L5s Custom </t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>$795.00</t>
+          <t>$8,800.00</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/ottawa/fender-stratocaster-usa-1997-on-an-mjt-1-piece-ash-nitro-body/1703720339</t>
+          <t>https://www.kijiji.ca/v-guitar/london/1974-gibson-l5s-custom/1703274556</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Fender Stratocaster electric guitar</t>
+          <t>DIY Guitar Kits, The largest selection of Do it Yourself Guitars</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>$800.00</t>
+          <t>Please Contact</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/chatham-kent/fender-stratocaster-electric-guitar/1703367868</t>
+          <t>https://www.kijiji.ca/v-guitar/markham-york-region/diy-guitar-kits-the-largest-selection-of-do-it-yourself-guitars/1483566448</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t xml:space="preserve">1974 Gibson L5s Custom </t>
+          <t>Fender Stratocaster USA 1997 on an MJT 1 Piece Ash Nitro Body</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>$8,800.00</t>
+          <t>$795.00</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/london/1974-gibson-l5s-custom/1703274556</t>
+          <t>https://www.kijiji.ca/v-guitar/ottawa/fender-stratocaster-usa-1997-on-an-mjt-1-piece-ash-nitro-body/1703720339</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Simon and patrick luthier guitar</t>
+          <t>Upgraded Epiphone Dot 335 Cherry w/ Bigsby and Hardshell Case</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>$400.00</t>
+          <t>$950.00</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/london/simon-and-patrick-luthier-guitar/1703912921</t>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/upgraded-epiphone-dot-335-cherry-w-bigsby-and-hardshell-case/1703933419</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>BOSS ODB-3 OVERDRIVE BASS GUITAR PEDAL</t>
+          <t>Loaded Stratocaster Pickguard</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>$95.00</t>
+          <t>$120.00</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/hamilton/boss-odb-3-overdrive-bass-guitar-pedal/1700104708</t>
+          <t>https://www.kijiji.ca/v-guitar/kingston-on/loaded-stratocaster-pickguard/1703933214</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>6 string guitar</t>
+          <t>Vintage BC Rich Acoustic/ Electric Guitar $400 OBO</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>$100.00</t>
+          <t>$400.00</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/london/6-string-guitar/1703912773</t>
+          <t>https://www.kijiji.ca/v-guitar/oakville-halton-region/vintage-bc-rich-acoustic-electric-guitar-400-obo/1677958647</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Seagull Acoustic Guitar Case</t>
+          <t>Kent 12 string guitar shell</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>$50.00</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/st-catharines/seagull-acoustic-guitar-case/1703912426</t>
+          <t>https://www.kijiji.ca/v-guitar/oakville-halton-region/kent-12-string-guitar-shell/1699782467</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Fender Player II Jazzmaster Coral Red</t>
+          <t>Stratocaster US Body</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>$825.00</t>
+          <t>$900.00</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/gatineau/fender-player-ii-jazzmaster-coral-red/1703912265</t>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/stratocaster-us-body/1703932738</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>FS or Trade: Gibson Les Paul Faded L&amp;M Limited</t>
+          <t>Fender 12-string acoustic/electric guitar</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>$2,300.00</t>
+          <t>$300.00</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/fs-or-trade:-gibson-les-paul-faded-l-m-limited/1703912120</t>
+          <t>https://www.kijiji.ca/v-guitar/oakville-halton-region/fender-12-string-acoustic-electric-guitar/1703932447</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>ELECTRIC GUITAR  AND   AMP  --  LIKE  NEW</t>
+          <t>Gibson Memphis ES-339 (2017)</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>$225.00</t>
+          <t>$3,100.00</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/kitchener-waterloo/electric-guitar-and-amp-like-new/1703912013</t>
+          <t>https://www.kijiji.ca/v-guitar/markham-york-region/gibson-memphis-es-339-2017/1703931931</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>IBANEZ  BASS GUITAR  WITH CASE --  LIKE NEW</t>
+          <t xml:space="preserve">acoustic guitar </t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>$265.00</t>
+          <t>$200.00</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/kitchener-waterloo/ibanez-bass-guitar-with-case-like-new/1703911877</t>
+          <t>https://www.kijiji.ca/v-guitar/thunder-bay/acoustic-guitar/1703931504</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>VINTAGE SUZUKI ACOUSTIC GUITAR  --  JAPAN</t>
+          <t>Kent Mandolin</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>$245.00</t>
+          <t>Please Contact</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/kitchener-waterloo/vintage-suzuki-acoustic-guitar-japan/1703911728</t>
+          <t>https://www.kijiji.ca/v-guitar/thunder-bay/kent-mandolin/1703931415</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Fender Partscaster / 60s Telecaster Build</t>
+          <t xml:space="preserve">Orange cabinet </t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>$1,400.00</t>
+          <t>$1,350.00</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/fender-partscaster-60s-telecaster-build/1703911404</t>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/orange-cabinet/1703930663</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>DENVER ACOUSTIC GUITAR --  EXCELLENT  CONDITION</t>
+          <t>Like New Epiphone Slash AFD Les Paul Special II Outfit</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>$120.00</t>
+          <t>$350.00</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/kitchener-waterloo/denver-acoustic-guitar-excellent-condition/1703911388</t>
+          <t>https://www.kijiji.ca/v-guitar/brantford/like-new-epiphone-slash-afd-les-paul-special-ii-outfit/1703930662</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Fender Deluxe Fat Strat</t>
+          <t>2000 Fender Stratocaster w/USA pickups</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>$2,495.00</t>
+          <t>$950.00</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/ottawa/fender-deluxe-fat-strat/1698036040</t>
+          <t>https://www.kijiji.ca/v-guitar/ottawa/2000-fender-stratocaster-w-usa-pickups/1703926158</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>PRS Johnny Hiland Guitar</t>
+          <t>Ibanez Bass</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>$2,800.00</t>
+          <t>$200.00</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/ottawa/prs-johnny-hiland-guitar/1697694656</t>
+          <t>https://www.kijiji.ca/v-guitar/thunder-bay/ibanez-bass/1703930191</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Martin Mahogany 000-15SM</t>
+          <t>Ibanez IC420FM Iceman - Violin Sunburst w/ Gig Bag</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>$2,250.00</t>
+          <t>$1,119.00</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/ottawa/martin-mahogany-000-15sm/1703910119</t>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/ibanez-ic420fm-iceman-violin-sunburst-w-gig-bag/1703930097</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Old guitar with strap</t>
+          <t>Fender Sixty Six (rare)</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>$50.00</t>
+          <t>$1,100.00</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/old-guitar-with-strap/1703909631</t>
+          <t>https://www.kijiji.ca/v-guitar/hamilton/fender-sixty-six-rare/1695808787</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>John Mayer Silver Sky Dragon Fruit</t>
+          <t>Fender Special Edition Custom HH FMT Telecaster</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>$950.00</t>
+          <t>$1,100.00</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/john-mayer-silver-sky-dragon-fruit/1703909093</t>
+          <t>https://www.kijiji.ca/v-guitar/hamilton/fender-special-edition-custom-hh-fmt-telecaster/1689710211</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>JAY Jr. Guitar &amp; PROFILE  Carrying Case</t>
+          <t>Les Paul Custom - Prophecy Plus EX  MS</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>$125.00</t>
+          <t>$900.00</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/jay-jr-guitar-profile-carrying-case/1703908949</t>
+          <t>https://www.kijiji.ca/v-guitar/hamilton/les-paul-custom-prophecy-plus-ex-ms/1684315256</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Jackson USA Signature Adrian Smith San Dimas SDM (2016)</t>
+          <t>Fender Amplifier - 68 Custom Vibro Champ Reverb, 120V</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>$3,000.00</t>
+          <t>$1,150.00</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/ottawa/jackson-usa-signature-adrian-smith-san-dimas-sdm-2016/1703908768</t>
+          <t>https://www.kijiji.ca/v-guitar/mississauga-peel-region/fender-amplifier-68-custom-vibro-champ-reverb-120v/1703929415</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Jackson Kelly Professional Guitar</t>
+          <t>Les Paul epiphone limited edition slash gold top</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>$1,100.00</t>
+          <t>$800.00</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/kingston-on/jackson-kelly-professional-guitar/1699435932</t>
+          <t>https://www.kijiji.ca/v-guitar/mississauga-peel-region/les-paul-epiphone-limited-edition-slash-gold-top/1703929245</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Fender Stratocaster Tom Delonge Reissue</t>
+          <t>2013 Suhr Classic S</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>$1,300.00</t>
+          <t>$3,900.00</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/woodstock-on/fender-stratocaster-tom-delonge-reissue/1703908458</t>
+          <t>https://www.kijiji.ca/v-guitar/ottawa/2013-suhr-classic-s/1703929092</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>1976 Ibanez Lawsuit Era 2370</t>
+          <t>Hudson Kingfisher Acoustic Guitar for sale (UK Brand)</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>$999.00</t>
+          <t>$900.00</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/ottawa/1976-ibanez-lawsuit-era-2370/1703908378</t>
+          <t>https://www.kijiji.ca/v-guitar/ottawa/hudson-kingfisher-acoustic-guitar-for-sale-uk-brand/1703928108</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Yamaha S-50A Classical Acoustic (Nippon Gakki)</t>
+          <t>FIREFLY Guitar and Amp</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>$269.00</t>
+          <t>$300.00</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/oshawa-durham-region/yamaha-s-50a-classical-acoustic-nippon-gakki/1695790918</t>
+          <t>https://www.kijiji.ca/v-guitar/hamilton/firefly-guitar-and-amp/1700122803</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>F/S MJM Sixties Uni-Vibe Bigbox Pedal</t>
+          <t xml:space="preserve">gretsch 2655T </t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>$350.00</t>
+          <t>$600.00</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/f-s-mjm-sixties-uni-vibe-bigbox-pedal/1688671698</t>
+          <t>https://www.kijiji.ca/v-guitar/st-catharines/gretsch-2655t/1703927833</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>squier cyclone electric Guitar by fender</t>
+          <t>sell or maybe trade guitars and acces</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>$400.00</t>
+          <t>Please Contact</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/oshawa-durham-region/squier-cyclone-electric-guitar-by-fender/1703906662</t>
+          <t>https://www.kijiji.ca/v-guitar/oshawa-durham-region/sell-or-maybe-trade-guitars-and-acces/1703927818</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Martin Smith Guitar (W-101-N-PK)</t>
+          <t>Martin Dreadnought jr. Acoustic</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>$80.00</t>
+          <t>$600.00</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/martin-smith-guitar-w-101-n-pk/1703905872</t>
+          <t>https://www.kijiji.ca/v-guitar/oshawa-durham-region/martin-dreadnought-jr-acoustic/1703927427</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Sonuus G2M v2   100$</t>
+          <t>BC Rich Warlock "beast" body art series 2002 limited edition</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>$100.00</t>
+          <t>$150.00</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/markham-york-region/sonuus-g2m-v2-100/1670979054</t>
+          <t>https://www.kijiji.ca/v-guitar/sudbury/bc-rich-warlock-beast-body-art-series-2002-limited-edition/1703927231</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Squier Strat Parts</t>
+          <t>Acoustic guitar</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>$100.00</t>
+          <t>$650.00</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/ottawa/squier-strat-parts/1703905536</t>
+          <t>https://www.kijiji.ca/v-guitar/oshawa-durham-region/acoustic-guitar/1703926886</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>2013 Fender Marcus Miller V USA Jazz Bass</t>
+          <t>TAYLOR 314CE - NATURAL W/ CASE</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>$3,500.00</t>
+          <t>$3,399.00</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/2013-fender-marcus-miller-v-usa-jazz-bass/1703905084</t>
+          <t>https://www.kijiji.ca/v-guitar/trenton-on/taylor-314ce-natural-w-case/1703926560</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>JOHNSON ACOUSTIC  GUITAR ( GREAT QUALITY )</t>
+          <t>Ukulele is available for sale</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>$150.00</t>
+          <t>$45.00</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/kitchener-waterloo/johnson-acoustic-guitar-great-quality/1703904552</t>
+          <t>https://www.kijiji.ca/v-guitar/kitchener-waterloo/ukulele-is-available-for-sale/1575920889</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>VINTAGE 1960'S NATIONAL  ELECTRIC  GUITAR</t>
+          <t>YAMAHA   FG - 75   GUITAR    $ 300</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>$1,200.00</t>
+          <t>$300.00</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/kitchener-waterloo/vintage-1960s-national-electric-guitar/1703904499</t>
+          <t>https://www.kijiji.ca/v-guitar/hamilton/yamaha-fg-75-guitar-300/1703925754</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Spector NS-6A Guitar. Kramer Era.</t>
+          <t>Classical Guitar KAWAI G-150E</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>$2,000.00</t>
+          <t>$435.00</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/spector-ns-6a-guitar-kramer-era/1703904163</t>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/classical-guitar-kawai-g-150e/1703925740</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vintage Hondo H1 Death Dagger Guitar. </t>
+          <t>Vintage 70's Fender or Gibson Style Guitar Case</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>$1,200.00</t>
+          <t>$100.00</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/vintage-hondo-h1-death-dagger-guitar/1703903911</t>
+          <t>https://www.kijiji.ca/v-guitar/oakville-halton-region/vintage-70s-fender-or-gibson-style-guitar-case/1703925728</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Crafter guitar kpk0038</t>
+          <t>Yamaha F-340 acoustic guitar</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>$1,800.00</t>
+          <t>$140.00</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/oshawa-durham-region/crafter-guitar-kpk0038/1703903399</t>
+          <t>https://www.kijiji.ca/v-guitar/markham-york-region/yamaha-f-340-acoustic-guitar/1703925721</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Guitar / Instrument Cable</t>
+          <t>Hercules double guitars stand</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>$10.00</t>
+          <t>$65.00</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/st-catharines/guitar-instrument-cable/1691506412</t>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/hercules-double-guitars-stand/1703925594</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t xml:space="preserve">1974 Gibson L5s Custom </t>
+          <t>PRECISION GUITAR WORX</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>$8,800.00</t>
+          <t>Please Contact</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/london/1974-gibson-l5s-custom/1703274556</t>
+          <t>https://www.kijiji.ca/v-guitar/sudbury/precision-guitar-worx/1660305330</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>DIY Guitar Kits, The largest selection of Do it Yourself Guitars</t>
+          <t>Epiphone Riviera Electric Guitar</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Please Contact</t>
+          <t>$699.00</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/markham-york-region/diy-guitar-kits-the-largest-selection-of-do-it-yourself-guitars/1483566448</t>
+          <t>https://www.kijiji.ca/v-guitar/ottawa/epiphone-riviera-electric-guitar/1702114895</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Fender Stratocaster USA 1997 on an MJT 1 Piece Ash Nitro Body</t>
+          <t>DIY Guitar Kits, The largest selection of Do it Yourself Guitars</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>$795.00</t>
+          <t>Please Contact</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/ottawa/fender-stratocaster-usa-1997-on-an-mjt-1-piece-ash-nitro-body/1703720339</t>
+          <t>https://www.kijiji.ca/v-guitar/markham-york-region/diy-guitar-kits-the-largest-selection-of-do-it-yourself-guitars/1483566448</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Fender Stratocaster electric guitar</t>
+          <t>Fender Stratocaster USA 1997 on an MJT 1 Piece Ash Nitro Body</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>$800.00</t>
+          <t>$795.00</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/chatham-kent/fender-stratocaster-electric-guitar/1703367868</t>
+          <t>https://www.kijiji.ca/v-guitar/ottawa/fender-stratocaster-usa-1997-on-an-mjt-1-piece-ash-nitro-body/1703720339</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>PRECISION GUITAR WORX</t>
+          <t>Fender Stratocaster electric guitar</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Please Contact</t>
+          <t>$800.00</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/sudbury/precision-guitar-worx/1660305330</t>
+          <t>https://www.kijiji.ca/v-guitar/chatham-kent/fender-stratocaster-electric-guitar/1703367868</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Epiphone Riviera Electric Guitar</t>
+          <t xml:space="preserve">1974 Gibson L5s Custom </t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>$699.00</t>
+          <t>$8,800.00</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/ottawa/epiphone-riviera-electric-guitar/1702114895</t>
+          <t>https://www.kijiji.ca/v-guitar/london/1974-gibson-l5s-custom/1703274556</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Guitar gig bag acoustic</t>
+          <t>Ltd 256</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>$25.00</t>
+          <t>$475.00</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/st-catharines/guitar-gig-bag-acoustic/1703901202</t>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/ltd-256/1703923993</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Ibanez PF 60 SE</t>
+          <t>FENDER SQUIER BASS GUITAR</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>$180.00</t>
+          <t>$290.00</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/trenton-on/ibanez-pf-60-se/1703900729</t>
+          <t>https://www.kijiji.ca/v-guitar/london/fender-squier-bass-guitar/1703923948</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>80’s Yamaha SE200</t>
+          <t>Left Handed Jackson Rhoads JS32</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>$300.00</t>
+          <t>$450.00</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/st-catharines/80-s-yamaha-se200/1703900547</t>
+          <t>https://www.kijiji.ca/v-guitar/kitchener-waterloo/left-handed-jackson-rhoads-js32/1703923464</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t xml:space="preserve">Martin D-28 Guitar </t>
+          <t xml:space="preserve">Yamaha FG-403MS Acoustic Guitar </t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>$10,000.00</t>
+          <t>$140.00</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/oshawa-durham-region/martin-d-28-guitar/1703900548</t>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/yamaha-fg-403ms-acoustic-guitar/1703923110</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Takamine Jasmine</t>
+          <t>Fender Squier Elecrric and Amp Combo</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>$60.00</t>
+          <t>$250.00</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/trenton-on/takamine-jasmine/1703900181</t>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/fender-squier-elecrric-and-amp-combo/1703922599</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Black Tremolo Bar</t>
+          <t>Fender HotRod Telecaster</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>$10.00</t>
+          <t>$2,000.00</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/oakville-halton-region/black-tremolo-bar/1700006016</t>
+          <t>https://www.kijiji.ca/v-guitar/st-catharines/fender-hotrod-telecaster/1703922428</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>MIA Fender Telecaster Pickup Set</t>
+          <t>Gibson Les Paul Tribute guitar</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>$175.00</t>
+          <t>$1,200.00</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/mississauga-peel-region/mia-fender-telecaster-pickup-set/1703899909</t>
+          <t>https://www.kijiji.ca/v-guitar/st-catharines/gibson-les-paul-tribute-guitar/1703922000</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Gibson Deluxe tuners</t>
+          <t>Denver acoustic bass</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>$80.00</t>
+          <t>$250.00</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/oakville-halton-region/gibson-deluxe-tuners/1699994576</t>
+          <t>https://www.kijiji.ca/v-guitar/woodstock-on/denver-acoustic-bass/1703921599</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rare Limited Edition Takamine </t>
+          <t>Les Paul Epiphone electric guitar with rocksmith bundle</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>$1,850.00</t>
+          <t>$200.00</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/london/rare-limited-edition-takamine/1703899875</t>
+          <t>https://www.kijiji.ca/v-guitar/oshawa-durham-region/les-paul-epiphone-electric-guitar-with-rocksmith-bundle/1703921125</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Martin Backpacker Traveling guitar with case</t>
+          <t>Fender Stratocaster with Hard Case</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>$120.00</t>
+          <t>$500.00</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/norfolk-county/martin-backpacker-traveling-guitar-with-case/1703898618</t>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/fender-stratocaster-with-hard-case/1703903818</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Seymour Duncan Stratocaster Hot Rail Pickups</t>
+          <t>2013 Fender American Deluxe Dimension Bass</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>$150.00</t>
+          <t>$2,000.00</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/kitchener-waterloo/seymour-duncan-stratocaster-hot-rail-pickups/1703899587</t>
+          <t>https://www.kijiji.ca/v-guitar/ottawa/2013-fender-american-deluxe-dimension-bass/1703920677</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>2007 Gibson J185 True Vintage</t>
+          <t>La Patrie All Solid Classical Guitar with Hard Shell Case</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>$2,900.00</t>
+          <t>$750.00</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/oshawa-durham-region/2007-gibson-j185-true-vintage/1703899454</t>
+          <t>https://www.kijiji.ca/v-guitar/london/la-patrie-all-solid-classical-guitar-with-hard-shell-case/1703920153</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Takamine Limited Edition</t>
+          <t>Squier Affinity Stratocaster Guitar</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>$1,850.00</t>
+          <t>$150.00</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/kitchener-waterloo/takamine-limited-edition/1703899437</t>
+          <t>https://www.kijiji.ca/v-guitar/st-catharines/squier-affinity-stratocaster-guitar/1703862998</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Adam jones signature Les paul</t>
+          <t>BeaverCreek 1/2 Size Guitar &amp; carrying bag &amp; Quick Start Book</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>$3,000.00</t>
+          <t>$150.00</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/north-bay/adam-jones-signature-les-paul/1703899371</t>
+          <t>https://www.kijiji.ca/v-guitar/markham-york-region/beavercreek-1-2-size-guitar-carrying-bag-quick-start-book/1674730989</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Orillia..Trade for Les Paul</t>
+          <t>Beaver Creek 1/2 Size Guitar &amp; carrying bag &amp; QuickStart Book</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>$1,500.00</t>
+          <t>$150.00</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/barrie/orillia-trade-for-les-paul/1703899197</t>
+          <t>https://www.kijiji.ca/v-guitar/markham-york-region/beaver-creek-1-2-size-guitar-carrying-bag-quickstart-book/1674730871</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Stratocaster Standard Series Electric Guitar - Cherryburst</t>
+          <t>1989 Gibson Pickups, Vintage, Post-PAF</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>$299.00</t>
+          <t>$650.00</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/st-catharines/stratocaster-standard-series-electric-guitar-cherryburst/1703898672</t>
+          <t>https://www.kijiji.ca/v-guitar/mississauga-peel-region/1989-gibson-pickups-vintage-post-paf/1703917134</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Fender Noiseless Pickups</t>
+          <t>PRS SE CE24 with gig bag!</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>$150.00</t>
+          <t>$939.00</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/kitchener-waterloo/fender-noiseless-pickups/1703898661</t>
+          <t>https://www.kijiji.ca/v-guitar/trenton-on/prs-se-ce24-with-gig-bag/1703919239</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Alastair Miller Green T with Lollar Charlie Christian</t>
+          <t>Fender American Vintage 2 - Stratocaster!</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>$2,500.00</t>
+          <t>$3,049.00</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/alastair-miller-green-t-with-lollar-charlie-christian/1697994272</t>
+          <t>https://www.kijiji.ca/v-guitar/trenton-on/fender-american-vintage-2-stratocaster/1703919031</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Rouge Valley Ukulele</t>
+          <t>Seymour Duncan Classic Stack Plus For Strat</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>$60.00</t>
+          <t>$70.00</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/windsor-area-on/rouge-valley-ukulele/1703898480</t>
+          <t>https://www.kijiji.ca/v-guitar/mississauga-peel-region/seymour-duncan-classic-stack-plus-for-strat/1703918469</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Hughes and Kettner Red Box MK 11 Cabinetululator G</t>
+          <t>1952 Gibson J45 Sunburst</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>$80.00</t>
+          <t>$8,500.00</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/hughes-and-kettner-red-box-mk-11-cabinetululator-g/1700086239</t>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/1952-gibson-j45-sunburst/1703918265</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Taylor 322 ce 12 Fret Acoustic Guitar</t>
+          <t>P.R.S. S2 Standard 24 Satin USA</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>$2,400.00</t>
+          <t>$1,250.00</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/oshawa-durham-region/taylor-322-ce-12-fret-acoustic-guitar/1703898130</t>
+          <t>https://www.kijiji.ca/v-guitar/mississauga-peel-region/p-r-s-s2-standard-24-satin-usa/1703918159</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Peavey - Strat - Raptor Plus - EXP - Electric Guitar</t>
+          <t>Fender Telecaster Pickups - Hand Wound - Vineham</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>$185.00</t>
+          <t>$140.00</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/st-catharines/peavey-strat-raptor-plus-exp-electric-guitar/1703897707</t>
+          <t>https://www.kijiji.ca/v-guitar/mississauga-peel-region/fender-telecaster-pickups-hand-wound-vineham/1703918154</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Fender Locking Tuners</t>
+          <t>Fender Squier Telecaster Standard 2018 Excellent.</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>$50.00</t>
+          <t>$325.00</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/kitchener-waterloo/fender-locking-tuners/1703897435</t>
+          <t>https://www.kijiji.ca/v-guitar/ottawa/fender-squier-telecaster-standard-2018-excellent/1703918108</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Junior Acoustic Guitar - Jay Jr / TBL - Blue - Good Condition</t>
+          <t>Jay Turser Vintage Series Bass Guitar w/ Case</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>$145.00</t>
+          <t>$375.00</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/st-catharines/junior-acoustic-guitar-jay-jr-tbl-blue-good-condition/1703897306</t>
+          <t>https://www.kijiji.ca/v-guitar/ottawa/jay-turser-vintage-series-bass-guitar-w-case/1482896864</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Dean Dime O Flage Camo</t>
+          <t>Boutique Guitars</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>$1,150.00</t>
+          <t>$4,500.00</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/thunder-bay/dean-dime-o-flage-camo/1703897004</t>
+          <t>https://www.kijiji.ca/v-guitar/london/boutique-guitars/1703917873</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Martin D 15-M 2023</t>
+          <t>Fender FSR Deluxe Telecaster</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>$1,800.00</t>
+          <t>$800.00</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/martin-d-15-m-2023/1703896977</t>
+          <t>https://www.kijiji.ca/v-guitar/ottawa/fender-fsr-deluxe-telecaster/1703917805</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Extreme Thrash Metal Guitars-Amps-Cabs</t>
+          <t>Extreme Thrash Metal-Play It with This Rare Pro Gear</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -5088,65 +5089,65 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/extreme-thrash-metal-guitars-amps-cabs/1703896717</t>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/extreme-thrash-metal-play-it-with-this-rare-pro-gear/1703916647</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Pickups/Electronics for Stratocaster</t>
+          <t>1992 Made in Japan Squier Strat</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>$75.00</t>
+          <t>$500.00</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/kitchener-waterloo/pickups-electronics-for-stratocaster/1703896698</t>
+          <t>https://www.kijiji.ca/v-guitar/brantford/1992-made-in-japan-squier-strat/1703916385</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Fender Jazz Bass Pickguard + Mounting Screws</t>
+          <t xml:space="preserve">Guitar, Classical </t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>$15.00</t>
+          <t>Please Contact</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/oakville-halton-region/fender-jazz-bass-pickguard-mounting-screws/1703896689</t>
+          <t>https://www.kijiji.ca/v-guitar/kitchener-waterloo/guitar-classical/1703916016</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Fender Acoustic Guitar with Case</t>
+          <t>Les Paul epiphone limited edition slash gold top</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>$100.00</t>
+          <t>$800.00</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/fender-acoustic-guitar-with-case/1703896502</t>
+          <t>https://www.kijiji.ca/v-guitar/barrie/les-paul-epiphone-limited-edition-slash-gold-top/1703915719</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>FENDER Telecaster electric guitar in great condition</t>
+          <t>Les Paul epiphone limited edition slash gold top</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -5156,75 +5157,75 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/oakville-halton-region/fender-telecaster-electric-guitar-in-great-condition/1703896494</t>
+          <t>https://www.kijiji.ca/v-guitar/hamilton/les-paul-epiphone-limited-edition-slash-gold-top/1703915555</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Electric Guitar..,</t>
+          <t>Les Paul epiphone limited edition slash gold top</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>$325.00</t>
+          <t>$800.00</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/electric-guitar/1608351271</t>
+          <t>https://www.kijiji.ca/v-guitar/markham-york-region/les-paul-epiphone-limited-edition-slash-gold-top/1703915509</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>ESP-LTD EC-256 Eclipse (Snow White)</t>
+          <t>Spanish Classical Guitar Artisano</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>$600.00</t>
+          <t>Swap/Trade</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/mississauga-peel-region/esp-ltd-ec-256-eclipse-snow-white/1703895030</t>
+          <t>https://www.kijiji.ca/v-guitar/oakville-halton-region/spanish-classical-guitar-artisano/1703914043</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Guitar Hangers</t>
+          <t>Electric Acoustic Dreadnought Beaver Creek Guitar &amp; Yamaha Amp</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>$125.00</t>
+          <t>$299.00</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/guitar-hangers/1703894998</t>
+          <t>https://www.kijiji.ca/v-guitar/st-catharines/electric-acoustic-dreadnought-beaver-creek-guitar-yamaha-amp/1703913172</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Fender Stratocaster USA 1997 on an MJT 1 Piece Ash Nitro Body</t>
+          <t>DIY Guitar Kits, The largest selection of Do it Yourself Guitars</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>$795.00</t>
+          <t>Please Contact</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/ottawa/fender-stratocaster-usa-1997-on-an-mjt-1-piece-ash-nitro-body/1703720339</t>
+          <t>https://www.kijiji.ca/v-guitar/markham-york-region/diy-guitar-kits-the-largest-selection-of-do-it-yourself-guitars/1483566448</t>
         </is>
       </c>
     </row>
@@ -5248,697 +5249,697 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t xml:space="preserve">1974 Gibson L5s Custom </t>
+          <t>Fender Stratocaster USA 1997 on an MJT 1 Piece Ash Nitro Body</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>$8,800.00</t>
+          <t>$795.00</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/london/1974-gibson-l5s-custom/1703274556</t>
+          <t>https://www.kijiji.ca/v-guitar/ottawa/fender-stratocaster-usa-1997-on-an-mjt-1-piece-ash-nitro-body/1703720339</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>PRECISION GUITAR WORX</t>
+          <t xml:space="preserve">1974 Gibson L5s Custom </t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Please Contact</t>
+          <t>$8,800.00</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/sudbury/precision-guitar-worx/1660305330</t>
+          <t>https://www.kijiji.ca/v-guitar/london/1974-gibson-l5s-custom/1703274556</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>DIY Guitar Kits, The largest selection of Do it Yourself Guitars</t>
+          <t>Fender Stratocaster electric guitar</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Please Contact</t>
+          <t>$800.00</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/markham-york-region/diy-guitar-kits-the-largest-selection-of-do-it-yourself-guitars/1483566448</t>
+          <t>https://www.kijiji.ca/v-guitar/chatham-kent/fender-stratocaster-electric-guitar/1703367868</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Fender Stratocaster electric guitar</t>
+          <t>PRECISION GUITAR WORX</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>$800.00</t>
+          <t>Please Contact</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/chatham-kent/fender-stratocaster-electric-guitar/1703367868</t>
+          <t>https://www.kijiji.ca/v-guitar/sudbury/precision-guitar-worx/1660305330</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Fender Oxblood Telecaster - Ebony &amp; USA Pickups - Ltd Ed</t>
+          <t>ELECTRIC GUITAR  AND   AMP  --  LIKE  NEW</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>$1,000.00</t>
+          <t>$225.00</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/fender-oxblood-telecaster-ebony-usa-pickups-ltd-ed/1703893809</t>
+          <t>https://www.kijiji.ca/v-guitar/kitchener-waterloo/electric-guitar-and-amp-like-new/1703912013</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t xml:space="preserve">Epiphone SG Special electric Guitar vintage worn cherry </t>
+          <t>IBANEZ  BASS GUITAR  WITH CASE --  LIKE NEW</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>$500.00</t>
+          <t>$265.00</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/guelph/epiphone-sg-special-electric-guitar-vintage-worn-cherry/1698369681</t>
+          <t>https://www.kijiji.ca/v-guitar/kitchener-waterloo/ibanez-bass-guitar-with-case-like-new/1703911877</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Snark tuner</t>
+          <t>VINTAGE SUZUKI ACOUSTIC GUITAR  --  JAPAN</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>$10.00</t>
+          <t>$245.00</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/snark-tuner/1703889721</t>
+          <t>https://www.kijiji.ca/v-guitar/kitchener-waterloo/vintage-suzuki-acoustic-guitar-japan/1703911728</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Antonio Lorca Guitarras de Artesania. Model 18</t>
+          <t>Fender Partscaster / 60s Telecaster Build</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>$500.00</t>
+          <t>$1,400.00</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/antonio-lorca-guitarras-de-artesania-model-18/1691525969</t>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/fender-partscaster-60s-telecaster-build/1703911404</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Jazz Bass Prewired Control Plate</t>
+          <t>DENVER ACOUSTIC GUITAR --  EXCELLENT  CONDITION</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>$35.00</t>
+          <t>$120.00</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/hamilton/jazz-bass-prewired-control-plate/1684652427</t>
+          <t>https://www.kijiji.ca/v-guitar/kitchener-waterloo/denver-acoustic-guitar-excellent-condition/1703911388</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Dingwall Afterburner II 5 -Faded  Blue Jean Burst</t>
+          <t>Fender Deluxe Fat Strat</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>$6,000.00</t>
+          <t>$2,495.00</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/dingwall-afterburner-ii-5-faded-blue-jean-burst/1686531071</t>
+          <t>https://www.kijiji.ca/v-guitar/ottawa/fender-deluxe-fat-strat/1698036040</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Fender Squier Telecaster</t>
+          <t>PRS Johnny Hiland Guitar</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>$500.00</t>
+          <t>$2,800.00</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/oshawa-durham-region/fender-squier-telecaster/1703891688</t>
+          <t>https://www.kijiji.ca/v-guitar/ottawa/prs-johnny-hiland-guitar/1697694656</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Vantage Bass Guitar</t>
+          <t>Martin Mahogany 000-15SM</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>$400.00</t>
+          <t>$2,250.00</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/vantage-bass-guitar/1695564136</t>
+          <t>https://www.kijiji.ca/v-guitar/ottawa/martin-mahogany-000-15sm/1703910119</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>electric guitar</t>
+          <t>Old guitar with strap</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>$100.00</t>
+          <t>$50.00</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/markham-york-region/electric-guitar/1703891435</t>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/old-guitar-with-strap/1703909631</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>2022 Fender American Vintage II 1951 telecaster</t>
+          <t>John Mayer Silver Sky Dragon Fruit</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>$2,600.00</t>
+          <t>$950.00</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/ottawa/2022-fender-american-vintage-ii-1951-telecaster/1703891089</t>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/john-mayer-silver-sky-dragon-fruit/1703909093</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Cedar Seagull 12 String  Acoustic Guitar with Hard Case</t>
+          <t>JAY Jr. Guitar &amp; PROFILE  Carrying Case</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>$625.00</t>
+          <t>$125.00</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/cedar-seagull-12-string-acoustic-guitar-with-hard-case/1691577061</t>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/jay-jr-guitar-profile-carrying-case/1703908949</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Guitars for Sale!</t>
+          <t>Jackson USA Signature Adrian Smith San Dimas SDM (2016)</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Please Contact</t>
+          <t>$3,000.00</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/windsor-area-on/guitars-for-sale/1703890576</t>
+          <t>https://www.kijiji.ca/v-guitar/ottawa/jackson-usa-signature-adrian-smith-san-dimas-sdm-2016/1703908768</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>YAMAHA FG-410-12 12 STRING ACOUSTIC GUITAR &amp; BAG</t>
+          <t>Jackson Kelly Professional Guitar</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>$245.00</t>
+          <t>$1,100.00</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/hamilton/yamaha-fg-410-12-12-string-acoustic-guitar-bag/1686510680</t>
+          <t>https://www.kijiji.ca/v-guitar/kingston-on/jackson-kelly-professional-guitar/1699435932</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t xml:space="preserve">Simon &amp; Patrick Acoustic Guitar </t>
+          <t>Fender Stratocaster Tom Delonge Reissue</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>$300.00</t>
+          <t>$1,300.00</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/guelph/simon-patrick-acoustic-guitar/1703890503</t>
+          <t>https://www.kijiji.ca/v-guitar/woodstock-on/fender-stratocaster-tom-delonge-reissue/1703908458</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Epiphone Les Paul Classic Goldtop</t>
+          <t>1976 Ibanez Lawsuit Era 2370</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>$425.00</t>
+          <t>$999.00</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/markham-york-region/epiphone-les-paul-classic-goldtop/1703890429</t>
+          <t>https://www.kijiji.ca/v-guitar/ottawa/1976-ibanez-lawsuit-era-2370/1703908378</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Metal Guitars-ZW Rebel-Slayer-Pantera-Steve Vai Flame-Rat Rod</t>
+          <t>Yamaha S-50A Classical Acoustic (Nippon Gakki)</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>$875.00</t>
+          <t>$269.00</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/metal-guitars-zw-rebel-slayer-pantera-steve-vai-flame-rat-rod/1703890373</t>
+          <t>https://www.kijiji.ca/v-guitar/oshawa-durham-region/yamaha-s-50a-classical-acoustic-nippon-gakki/1695790918</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Cutaway Seagull Original 6 Acoustic Electric Guitar</t>
+          <t>F/S MJM Sixties Uni-Vibe Bigbox Pedal</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>$425.00</t>
+          <t>$350.00</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/cutaway-seagull-original-6-acoustic-electric-guitar/1691576785</t>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/f-s-mjm-sixties-uni-vibe-bigbox-pedal/1688671698</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Carvin AC175 2000's USA OHSC</t>
+          <t>squier cyclone electric Guitar by fender</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>$475.00</t>
+          <t>$400.00</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/ottawa/carvin-ac175-2000s-usa-ohsc/1703890182</t>
+          <t>https://www.kijiji.ca/v-guitar/oshawa-durham-region/squier-cyclone-electric-guitar-by-fender/1703906662</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Yamaha Pacifica PAC  012</t>
+          <t>Martin Smith Guitar (W-101-N-PK)</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>$300.00</t>
+          <t>$80.00</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/mississauga-peel-region/yamaha-pacifica-pac-012/1686389662</t>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/martin-smith-guitar-w-101-n-pk/1703905872</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>GUITARS X 4 ( WALLHANGER/PARTS ) $30 EACH</t>
+          <t>Sonuus G2M v2   100$</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>$30.00</t>
+          <t>$100.00</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/gatineau/guitars-x-4-wallhanger-parts-30-each/1685401873</t>
+          <t>https://www.kijiji.ca/v-guitar/markham-york-region/sonuus-g2m-v2-100/1670979054</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>GUITAR GIG BAGS 3/4 SIZE $10 EACH</t>
+          <t>Squier Strat Parts</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>$10.00</t>
+          <t>$100.00</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/gatineau/guitar-gig-bags-3-4-size-10-each/1650107467</t>
+          <t>https://www.kijiji.ca/v-guitar/ottawa/squier-strat-parts/1703905536</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>GIG BAGS FULL SIZE $35 EACH</t>
+          <t>2013 Fender Marcus Miller V USA Jazz Bass</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>$35.00</t>
+          <t>$3,500.00</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/gatineau/gig-bags-full-size-35-each/1685717415</t>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/2013-fender-marcus-miller-v-usa-jazz-bass/1703905084</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>3/4 SIZE GIG BAGS $25 EACH</t>
+          <t>JOHNSON ACOUSTIC  GUITAR ( GREAT QUALITY )</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>$25.00</t>
+          <t>$150.00</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/gatineau/3-4-size-gig-bags-25-each/1685719520</t>
+          <t>https://www.kijiji.ca/v-guitar/kitchener-waterloo/johnson-acoustic-guitar-great-quality/1703904552</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>STUNNING RED METALLIC BASS YAMAHA BRAND NEW+BAG $450</t>
+          <t>VINTAGE 1960'S NATIONAL  ELECTRIC  GUITAR</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>$450.00</t>
+          <t>$1,200.00</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/mississauga-peel-region/stunning-red-metallic-bass-yamaha-brand-new-bag-450/1703886474</t>
+          <t>https://www.kijiji.ca/v-guitar/kitchener-waterloo/vintage-1960s-national-electric-guitar/1703904499</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Guitar case / Étui à guitare</t>
+          <t>Spector NS-6A Guitar. Kramer Era.</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>$30.00</t>
+          <t>$2,000.00</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/gatineau/guitar-case-etui-a-guitare/1703887817</t>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/spector-ns-6a-guitar-kramer-era/1703904163</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Acoustic Guitar with integrated pickup - TCM</t>
+          <t xml:space="preserve">Vintage Hondo H1 Death Dagger Guitar. </t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>$345.00</t>
+          <t>$1,200.00</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/ottawa/acoustic-guitar-with-integrated-pickup-tcm/1644561678</t>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/vintage-hondo-h1-death-dagger-guitar/1703903911</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>guitar red new</t>
+          <t>Crafter guitar kpk0038</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>$400.00</t>
+          <t>$1,800.00</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/st-catharines/guitar-red-new/1703887183</t>
+          <t>https://www.kijiji.ca/v-guitar/oshawa-durham-region/crafter-guitar-kpk0038/1703903399</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Washburn Silverado strat LS93</t>
+          <t>Guitar / Instrument Cable</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>$2,400.00</t>
+          <t>$10.00</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/windsor-area-on/washburn-silverado-strat-ls93/1669918693</t>
+          <t>https://www.kijiji.ca/v-guitar/st-catharines/guitar-instrument-cable/1691506412</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Ibanez Prestige RG5320</t>
+          <t>WANTED: Hard case for a 335, Dot Archtop</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>$2,500.00</t>
+          <t>Please Contact</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/ottawa/ibanez-prestige-rg5320/1703886897</t>
+          <t>https://www.kijiji.ca/v-guitar/ottawa/wanted:-hard-case-for-a-335-dot-archtop/1703902849</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Jackson USA Soloist SL2MG</t>
+          <t>5 String Active Bass Body, String Through Bridge</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>$3,000.00</t>
+          <t>$200.00</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/ottawa/jackson-usa-soloist-sl2mg/1703886761</t>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/5-string-active-bass-body-string-through-bridge/1703902573</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Huntington classical electric cutaway guitar and case</t>
+          <t>Pro Level Custom Guitars</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Please Contact</t>
+          <t>$4,000.00</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/london/huntington-classical-electric-cutaway-guitar-and-case/1703886674</t>
+          <t>https://www.kijiji.ca/v-guitar/london/pro-level-custom-guitars/1703902109</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Acoustic Electric Guitar Jay Turner</t>
+          <t xml:space="preserve">Fender MIM Telecaster </t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>$265.00</t>
+          <t>$800.00</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/acoustic-electric-guitar-jay-turner/1703886327</t>
+          <t>https://www.kijiji.ca/v-guitar/barrie/fender-mim-telecaster/1703902088</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>EA44 washburn acoustic electric guitar,  30 year, collectors</t>
+          <t>Guitar Martin D-28 1978 mint condition  $4000.00</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>$1,299.00</t>
+          <t>$4,000.00</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/barrie/ea44-washburn-acoustic-electric-guitar-30-year-collectors/1600051791</t>
+          <t>https://www.kijiji.ca/v-guitar/markham-york-region/guitar-martin-d-28-1978-mint-condition-4000-00/1703901582</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>fender thinline w/bareknuckle bootcamp pickups &amp; coil splitter</t>
+          <t>Brand New SKB 335 Hardshell Case - TSA Latch, Over-Molded Handle</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>$1,600.00</t>
+          <t>$250.00</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/hamilton/fender-thinline-w-bareknuckle-bootcamp-pickups-coil-splitter/1703885289</t>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/brand-new-skb-335-hardshell-case-tsa-latch-over-molded-handle/1703901520</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Fender Stratocaster electric guitar</t>
+          <t>PRECISION GUITAR WORX</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>$800.00</t>
+          <t>Please Contact</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/chatham-kent/fender-stratocaster-electric-guitar/1703367868</t>
+          <t>https://www.kijiji.ca/v-guitar/sudbury/precision-guitar-worx/1660305330</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>PRECISION GUITAR WORX</t>
+          <t>Epiphone Riviera Electric Guitar</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Please Contact</t>
+          <t>$699.00</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/sudbury/precision-guitar-worx/1660305330</t>
+          <t>https://www.kijiji.ca/v-guitar/ottawa/epiphone-riviera-electric-guitar/1702114895</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Epiphone Riviera Electric Guitar</t>
+          <t>Fender Stratocaster electric guitar</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>$699.00</t>
+          <t>$800.00</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/ottawa/epiphone-riviera-electric-guitar/1702114895</t>
+          <t>https://www.kijiji.ca/v-guitar/chatham-kent/fender-stratocaster-electric-guitar/1703367868</t>
         </is>
       </c>
     </row>
@@ -5996,663 +5997,663 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Gibson Custom Shop 1942 LG-2 Banner 1 of 35  Acoustic Guitar</t>
+          <t>Black Tremolo Bar</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>$4,500.00</t>
+          <t>$10.00</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/markham-york-region/gibson-custom-shop-1942-lg-2-banner-1-of-35-acoustic-guitar/1678102104</t>
+          <t>https://www.kijiji.ca/v-guitar/oakville-halton-region/black-tremolo-bar/1700006016</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Orillia..westcreak V</t>
+          <t>MIA Fender Telecaster Pickup Set</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>$650.00</t>
+          <t>$175.00</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/barrie/orillia-westcreak-v/1703884314</t>
+          <t>https://www.kijiji.ca/v-guitar/mississauga-peel-region/mia-fender-telecaster-pickup-set/1703899909</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Orillia..5 string fanned fretted bass</t>
+          <t>Gibson Deluxe tuners</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Swap/Trade</t>
+          <t>$80.00</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/barrie/orillia-5-string-fanned-fretted-bass/1703884205</t>
+          <t>https://www.kijiji.ca/v-guitar/oakville-halton-region/gibson-deluxe-tuners/1699994576</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Squire Affinity Jazz Master</t>
+          <t>Martin Backpacker Traveling guitar with case</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>$225.00</t>
+          <t>$120.00</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/oshawa-durham-region/squire-affinity-jazz-master/1703884142</t>
+          <t>https://www.kijiji.ca/v-guitar/norfolk-county/martin-backpacker-traveling-guitar-with-case/1703898618</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Orillia. Warwick corvette 5-string..</t>
+          <t>Seymour Duncan Stratocaster Hot Rail Pickups</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Swap/Trade</t>
+          <t>$150.00</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/barrie/orillia-warwick-corvette-5-string/1703884127</t>
+          <t>https://www.kijiji.ca/v-guitar/kitchener-waterloo/seymour-duncan-stratocaster-hot-rail-pickups/1703899587</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Vangoa 12 String Guitar</t>
+          <t>2007 Gibson J185 True Vintage</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>$125.00</t>
+          <t>$2,900.00</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/oshawa-durham-region/vangoa-12-string-guitar/1703884065</t>
+          <t>https://www.kijiji.ca/v-guitar/oshawa-durham-region/2007-gibson-j185-true-vintage/1703899454</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Rare vintage old Saturn acoustic guitar  Japan model 605</t>
+          <t>Adam jones signature Les paul</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Please Contact</t>
+          <t>$3,000.00</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/oakville-halton-region/rare-vintage-old-saturn-acoustic-guitar-japan-model-605/1637192135</t>
+          <t>https://www.kijiji.ca/v-guitar/north-bay/adam-jones-signature-les-paul/1703899371</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Epiphone Les Paul Jr P90</t>
+          <t>Orillia..Trade for Les Paul</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>$140.00</t>
+          <t>$1,500.00</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/oshawa-durham-region/epiphone-les-paul-jr-p90/1703884011</t>
+          <t>https://www.kijiji.ca/v-guitar/barrie/orillia-trade-for-les-paul/1703899197</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Custom Fender Stratocaster body</t>
+          <t>Stratocaster Standard Series Electric Guitar - Cherryburst</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>$600.00</t>
+          <t>$299.00</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/st-catharines/custom-fender-stratocaster-body/1437510987</t>
+          <t>https://www.kijiji.ca/v-guitar/st-catharines/stratocaster-standard-series-electric-guitar-cherryburst/1703898672</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>PEAVEY THRONE SEAT - Quick Folding - Mint Clean Condition</t>
+          <t>Fender Noiseless Pickups</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>$40.00</t>
+          <t>$150.00</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/london/peavey-throne-seat-quick-folding-mint-clean-condition/1703883339</t>
+          <t>https://www.kijiji.ca/v-guitar/kitchener-waterloo/fender-noiseless-pickups/1703898661</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Epiphone Les Paul Standard Pro - rare AAA Blue Burst</t>
+          <t>Alastair Miller Green T with Lollar Charlie Christian</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>$599.00</t>
+          <t>$2,500.00</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/ottawa/epiphone-les-paul-standard-pro-rare-aaa-blue-burst/1703872169</t>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/alastair-miller-green-t-with-lollar-charlie-christian/1697994272</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Mint Accoustic/Electric Guitar</t>
+          <t>Rouge Valley Ukulele</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>$1,200.00</t>
+          <t>$60.00</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/mint-accoustic-electric-guitar/1703882820</t>
+          <t>https://www.kijiji.ca/v-guitar/windsor-area-on/rouge-valley-ukulele/1703898480</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Vintage 1979 Acoustic Guitar Yamaha FG331 Grand Concert</t>
+          <t>Hughes and Kettner Red Box MK 11 Cabinetululator G</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>$435.00</t>
+          <t>$80.00</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/vintage-1979-acoustic-guitar-yamaha-fg331-grand-concert/1703882476</t>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/hughes-and-kettner-red-box-mk-11-cabinetululator-g/1700086239</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Epiphone Viola Electric Bass</t>
+          <t>Taylor 322 ce 12 Fret Acoustic Guitar</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>$465.00</t>
+          <t>$2,400.00</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/epiphone-viola-electric-bass/1703882313</t>
+          <t>https://www.kijiji.ca/v-guitar/oshawa-durham-region/taylor-322-ce-12-fret-acoustic-guitar/1703898130</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Joe Bonamassa “Bonnie” Strat Loaded Pickguard (#46 of 100)</t>
+          <t>Peavey - Strat - Raptor Plus - EXP - Electric Guitar</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>$950.00</t>
+          <t>$185.00</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/ottawa/joe-bonamassa-bonnie-strat-loaded-pickguard-46-of-100/1686636489</t>
+          <t>https://www.kijiji.ca/v-guitar/st-catharines/peavey-strat-raptor-plus-exp-electric-guitar/1703897707</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>2002 Paul Reed Smith PRS Custom 22 Core Model Guitar</t>
+          <t>Fender Locking Tuners</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Swap/Trade</t>
+          <t>$50.00</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/kitchener-waterloo/2002-paul-reed-smith-prs-custom-22-core-model-guitar/1703881776</t>
+          <t>https://www.kijiji.ca/v-guitar/kitchener-waterloo/fender-locking-tuners/1703897435</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Ibanez Art100 guitar</t>
+          <t>Junior Acoustic Guitar - Jay Jr / TBL - Blue - Good Condition</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>$500.00</t>
+          <t>$145.00</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/ibanez-art100-guitar/1699955637</t>
+          <t>https://www.kijiji.ca/v-guitar/st-catharines/junior-acoustic-guitar-jay-jr-tbl-blue-good-condition/1703897306</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Ibanez AR200 guitar</t>
+          <t>Dean Dime O Flage Camo</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>$600.00</t>
+          <t>$1,150.00</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/ibanez-ar200-guitar/1699950812</t>
+          <t>https://www.kijiji.ca/v-guitar/thunder-bay/dean-dime-o-flage-camo/1703897004</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Moukey 41" Acoustic Guitar (adult size)</t>
+          <t>Martin D 15-M 2023</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>$150.00</t>
+          <t>$1,800.00</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/norfolk-county/moukey-41-acoustic-guitar-adult-size/1703879731</t>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/martin-d-15-m-2023/1703896977</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>2020 Gibson ES335 VOS 1964</t>
+          <t>Extreme Thrash Metal Guitars-Amps-Cabs</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>$6,000.00</t>
+          <t>Please Contact</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/cambridge/2020-gibson-es335-vos-1964/1703879658</t>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/extreme-thrash-metal-guitars-amps-cabs/1703896717</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Duesenberg Double Cat 12 string electric guitar</t>
+          <t>Pickups/Electronics for Stratocaster</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>$3,200.00</t>
+          <t>$75.00</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/duesenberg-double-cat-12-string-electric-guitar/1696741291</t>
+          <t>https://www.kijiji.ca/v-guitar/kitchener-waterloo/pickups-electronics-for-stratocaster/1703896698</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Martin 16 Series D-16GT</t>
+          <t>Fender Jazz Bass Pickguard + Mounting Screws</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>$1,750.00</t>
+          <t>$15.00</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/oakville-halton-region/martin-16-series-d-16gt/1699995192</t>
+          <t>https://www.kijiji.ca/v-guitar/oakville-halton-region/fender-jazz-bass-pickguard-mounting-screws/1703896689</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>2008 Slah Signature Les Paul</t>
+          <t>Fender Acoustic Guitar with Case</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>$5,000.00</t>
+          <t>$100.00</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/oshawa-durham-region/2008-slah-signature-les-paul/1703877103</t>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/fender-acoustic-guitar-with-case/1703896502</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t xml:space="preserve">Red Electric Guitar </t>
+          <t>FENDER Telecaster electric guitar in great condition</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>$210.00</t>
+          <t>$800.00</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/mississauga-peel-region/red-electric-guitar/1698673813</t>
+          <t>https://www.kijiji.ca/v-guitar/oakville-halton-region/fender-telecaster-electric-guitar-in-great-condition/1703896494</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Wanted: Fender texas specials</t>
+          <t>Electric Guitar..,</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Please Contact</t>
+          <t>$325.00</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/ottawa/wanted:-fender-texas-specials/1703876824</t>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/electric-guitar/1608351271</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Beginner acoustic guitar with book</t>
+          <t>ESP-LTD EC-256 Eclipse (Snow White)</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>$175.00</t>
+          <t>$600.00</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/beginner-acoustic-guitar-with-book/1691735365</t>
+          <t>https://www.kijiji.ca/v-guitar/mississauga-peel-region/esp-ltd-ec-256-eclipse-snow-white/1703895030</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Ritter Junior Acoustic Guitar Bag Padded &amp; Pockets</t>
+          <t>Guitar Hangers</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>$20.00</t>
+          <t>$125.00</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/oshawa-durham-region/ritter-junior-acoustic-guitar-bag-padded-pockets/1703876642</t>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/guitar-hangers/1703894998</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Eastwood classic 6 semi-hollow electric guitar</t>
+          <t>Telecaster-richie kotzen signature</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>$350.00</t>
+          <t>$1,500.00</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/hamilton/eastwood-classic-6-semi-hollow-electric-guitar/1699945822</t>
+          <t>https://www.kijiji.ca/v-guitar/owen-sound/telecaster-richie-kotzen-signature/1703883922</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Graph Tech saddles for Strat guitar</t>
+          <t>EVH Wolfgang Special - Stealth Black with case</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>$40.00</t>
+          <t>$1,350.00</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/mississauga-peel-region/graph-tech-saddles-for-strat-guitar/1695969409</t>
+          <t>https://www.kijiji.ca/v-guitar/mississauga-peel-region/evh-wolfgang-special-stealth-black-with-case/1703894782</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Ibanez RG7MS For Sale</t>
+          <t>Blue Partcaster Strat</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>$750.00</t>
+          <t>$250.00</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/oshawa-durham-region/ibanez-rg7ms-for-sale/1703876100</t>
+          <t>https://www.kijiji.ca/v-guitar/st-catharines/blue-partcaster-strat/1646333143</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Yorkville Les Paul Hard Case</t>
+          <t>Resonator Guitar</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>$65.00</t>
+          <t>$450.00</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/mississauga-peel-region/yorkville-les-paul-hard-case/1703875028</t>
+          <t>https://www.kijiji.ca/v-guitar/ottawa/resonator-guitar/1703894455</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Samick Artist Series 6 string neck-thru Bass 1994 Blue</t>
+          <t>K Yairi DY87 TBK acoustic guitar MINT</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>$600.00</t>
+          <t>$1,150.00</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/ottawa/samick-artist-series-6-string-neck-thru-bass-1994-blue/1681444816</t>
+          <t>https://www.kijiji.ca/v-guitar/oshawa-durham-region/k-yairi-dy87-tbk-acoustic-guitar-mint/1698996470</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>PRS S2 Standard 24</t>
+          <t>Fender Oxblood Telecaster - Ebony &amp; USA Pickups - Ltd Ed</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>$1,250.00</t>
+          <t>$1,000.00</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/mississauga-peel-region/prs-s2-standard-24/1703874971</t>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/fender-oxblood-telecaster-ebony-usa-pickups-ltd-ed/1703893809</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>PRS SE NF3 Gunmetal Gray Electric Guitar</t>
+          <t xml:space="preserve">Epiphone SG Special electric Guitar vintage worn cherry </t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>$1,050.00</t>
+          <t>$500.00</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/london/prs-se-nf3-gunmetal-gray-electric-guitar/1703874945</t>
+          <t>https://www.kijiji.ca/v-guitar/guelph/epiphone-sg-special-electric-guitar-vintage-worn-cherry/1698369681</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>DIY Guitar Kits, The largest selection of Do it Yourself Guitars</t>
+          <t>Fender Stratocaster USA 1997 on an MJT 1 Piece Ash Nitro Body</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Please Contact</t>
+          <t>$795.00</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/markham-york-region/diy-guitar-kits-the-largest-selection-of-do-it-yourself-guitars/1483566448</t>
+          <t>https://www.kijiji.ca/v-guitar/ottawa/fender-stratocaster-usa-1997-on-an-mjt-1-piece-ash-nitro-body/1703720339</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t xml:space="preserve">1974 Gibson L5s Custom </t>
+          <t>Epiphone Riviera Electric Guitar</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>$8,800.00</t>
+          <t>$699.00</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/london/1974-gibson-l5s-custom/1703274556</t>
+          <t>https://www.kijiji.ca/v-guitar/ottawa/epiphone-riviera-electric-guitar/1702114895</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Fender Stratocaster electric guitar</t>
+          <t>DIY Guitar Kits, The largest selection of Do it Yourself Guitars</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>$800.00</t>
+          <t>Please Contact</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/chatham-kent/fender-stratocaster-electric-guitar/1703367868</t>
+          <t>https://www.kijiji.ca/v-guitar/markham-york-region/diy-guitar-kits-the-largest-selection-of-do-it-yourself-guitars/1483566448</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Fender Stratocaster USA 1997 on an MJT 1 Piece Ash Nitro Body</t>
+          <t xml:space="preserve">1974 Gibson L5s Custom </t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>$795.00</t>
+          <t>$8,800.00</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/ottawa/fender-stratocaster-usa-1997-on-an-mjt-1-piece-ash-nitro-body/1703720339</t>
+          <t>https://www.kijiji.ca/v-guitar/london/1974-gibson-l5s-custom/1703274556</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Epiphone Riviera Electric Guitar</t>
+          <t>Fender Stratocaster electric guitar</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>$699.00</t>
+          <t>$800.00</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/ottawa/epiphone-riviera-electric-guitar/1702114895</t>
+          <t>https://www.kijiji.ca/v-guitar/chatham-kent/fender-stratocaster-electric-guitar/1703367868</t>
         </is>
       </c>
     </row>
@@ -6676,578 +6677,579 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Left Handed Genuine USA Gibson Les Paul Studio</t>
+          <t>electric guitar</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>$1,900.00</t>
+          <t>$80.00</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/st-catharines/left-handed-genuine-usa-gibson-les-paul-studio/1636034910</t>
+          <t>https://www.kijiji.ca/v-guitar/markham-york-region/electric-guitar/1703891435</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Dillion DX Dragon</t>
+          <t>2022 Fender American Vintage II 1951 telecaster</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>$300.00</t>
+          <t>$2,600.00</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/st-catharines/dillion-dx-dragon/1654582882</t>
+          <t>https://www.kijiji.ca/v-guitar/ottawa/2022-fender-american-vintage-ii-1951-telecaster/1703891089</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t xml:space="preserve">New Acoustic Fender guitar FA series </t>
+          <t>Cedar Seagull 12 String  Acoustic Guitar with Hard Case</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>$299.00</t>
+          <t>$625.00</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/markham-york-region/new-acoustic-fender-guitar-fa-series/1671497798</t>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/cedar-seagull-12-string-acoustic-guitar-with-hard-case/1691577061</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>SCHECTER OMEN-7 ELECTRIC GUITAR - Walnut Satin - 2x Humbuckers</t>
+          <t>Guitars for Sale!</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>$700.00</t>
+          <t>Please Contact</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/thunder-bay/schecter-omen-7-electric-guitar-walnut-satin-2x-humbuckers/1690829183</t>
+          <t>https://www.kijiji.ca/v-guitar/windsor-area-on/guitars-for-sale/1703890576</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Squier Stratocaster w/ USA pickups</t>
+          <t>YAMAHA FG-410-12 12 STRING ACOUSTIC GUITAR &amp; BAG</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>$450.00</t>
+          <t>$245.00</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/owen-sound/squier-stratocaster-w-usa-pickups/1699955244</t>
+          <t>https://www.kijiji.ca/v-guitar/hamilton/yamaha-fg-410-12-12-string-acoustic-guitar-bag/1686510680</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>2006 ESP Eclipse Standard</t>
+          <t xml:space="preserve">Simon &amp; Patrick Acoustic Guitar </t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>$2,500.00</t>
+          <t>$300.00</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/2006-esp-eclipse-standard/1703478296</t>
+          <t>https://www.kijiji.ca/v-guitar/guelph/simon-patrick-acoustic-guitar/1703890503</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Musical Instrument</t>
+          <t>Epiphone Les Paul Classic Goldtop</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>$325.00</t>
+          <t>$425.00</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/mississauga-peel-region/musical-instrument/1696028715</t>
+          <t>https://www.kijiji.ca/v-guitar/markham-york-region/epiphone-les-paul-classic-goldtop/1703890429</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Custom Charvel Style Neck</t>
+          <t>Metal Guitars-ZW Rebel-Slayer-Pantera-Steve Vai Flame-Rat Rod</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>$180.00</t>
+          <t>$875.00</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/oakville-halton-region/custom-charvel-style-neck/1699990273</t>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/metal-guitars-zw-rebel-slayer-pantera-steve-vai-flame-rat-rod/1703890373</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Fender  “Tele-bration” 60th Anniversary ‘52 Hot Rod Telecaster</t>
+          <t>Cutaway Seagull Original 6 Acoustic Electric Guitar</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>$2,600.00</t>
+          <t>$425.00</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/markham-york-region/fender-tele-bration-60th-anniversary-52-hot-rod-telecaster/1699993356</t>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/cutaway-seagull-original-6-acoustic-electric-guitar/1691576785</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Epiphone Les Paul Custom Custom</t>
+          <t>Carvin AC175 2000's USA OHSC</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>$1,000.00</t>
+          <t>$475.00</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/markham-york-region/epiphone-les-paul-custom-custom/1703871553</t>
+          <t>https://www.kijiji.ca/v-guitar/ottawa/carvin-ac175-2000s-usa-ohsc/1703890182</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Led Zeppelin Fan  Size 10 men</t>
+          <t>Yamaha Pacifica PAC  012</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>$220.00</t>
+          <t>$300.00</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/led-zeppelin-fan-size-10-men/1703871542</t>
+          <t>https://www.kijiji.ca/v-guitar/mississauga-peel-region/yamaha-pacifica-pac-012/1686389662</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t xml:space="preserve">Guitar Parts and Accessories </t>
+          <t>GUITARS X 4 ( WALLHANGER/PARTS ) $30 EACH</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>$1.00</t>
+          <t>$30.00</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/guitar-parts-and-accessories/1668669918</t>
+          <t>https://www.kijiji.ca/v-guitar/gatineau/guitars-x-4-wallhanger-parts-30-each/1685401873</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Ibanez Jem 77P Steve Vai - Blue Floral Pattern</t>
+          <t>GUITAR GIG BAGS 3/4 SIZE $10 EACH</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>$1,500.00</t>
+          <t>$10.00</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/ibanez-jem-77p-steve-vai-blue-floral-pattern/1703870776</t>
+          <t>https://www.kijiji.ca/v-guitar/gatineau/guitar-gig-bags-3-4-size-10-each/1650107467</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Washburn X Series Electric Guitar</t>
+          <t>GIG BAGS FULL SIZE $35 EACH</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>$275.00</t>
+          <t>$35.00</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/washburn-x-series-electric-guitar/1697586367</t>
+          <t>https://www.kijiji.ca/v-guitar/gatineau/gig-bags-full-size-35-each/1685717415</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Tagima - Brazilian Acoustic Electric Guitar</t>
+          <t>3/4 SIZE GIG BAGS $25 EACH</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>$180.00</t>
+          <t>$25.00</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/tagima-brazilian-acoustic-electric-guitar/1703869349</t>
+          <t>https://www.kijiji.ca/v-guitar/gatineau/3-4-size-gig-bags-25-each/1685719520</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Sire Marcus Miller V7 2nd Gen 5 String Bass Guitar</t>
+          <t>STUNNING RED METALLIC BASS YAMAHA BRAND NEW+BAG $450</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>$1,050.00</t>
+          <t>$450.00</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/sire-marcus-miller-v7-2nd-gen-5-string-bass-guitar/1703868535</t>
+          <t>https://www.kijiji.ca/v-guitar/mississauga-peel-region/stunning-red-metallic-bass-yamaha-brand-new-bag-450/1703886474</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Expert Guitar Repair - 48 hour turnaround</t>
+          <t>Guitar case / Étui à guitare</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Please Contact</t>
+          <t>$30.00</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/expert-guitar-repair-48-hour-turnaround/1703866691</t>
+          <t>https://www.kijiji.ca/v-guitar/gatineau/guitar-case-etui-a-guitare/1703887817</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>New Denver Ukelele</t>
+          <t>Acoustic Guitar with integrated pickup - TCM</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>$70.00</t>
+          <t>$345.00</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/markham-york-region/new-denver-ukelele/1703867607</t>
+          <t>https://www.kijiji.ca/v-guitar/ottawa/acoustic-guitar-with-integrated-pickup-tcm/1644561678</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Ibanez Grooveline G-105 5 String Bass (Made in Japan)</t>
+          <t>guitar red new</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>$2,500.00</t>
+          <t>$400.00</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/oakville-halton-region/ibanez-grooveline-g-105-5-string-bass-made-in-japan/1703866964</t>
+          <t>https://www.kijiji.ca/v-guitar/st-catharines/guitar-red-new/1703887183</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Guitar straps</t>
+          <t>Washburn Silverado strat LS93</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>$20.00</t>
+          <t>$2,400.00</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/stratford-on/guitar-straps/1699926316</t>
+          <t>https://www.kijiji.ca/v-guitar/windsor-area-on/washburn-silverado-strat-ls93/1669918693</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Vintage RICKENBACKER 4003 Bass Guitar</t>
+          <t>Ibanez Prestige RG5320</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>$3,500.00</t>
+          <t>$2,500.00</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/markham-york-region/vintage-rickenbacker-4003-bass-guitar/1703866843</t>
+          <t>https://www.kijiji.ca/v-guitar/ottawa/ibanez-prestige-rg5320/1703886897</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Profile 100 Series Electric Guitar Gig Bag</t>
+          <t>Jackson USA Soloist SL2MG</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>$30.00</t>
+          <t>$3,000.00</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/ottawa/profile-100-series-electric-guitar-gig-bag/1703866257</t>
+          <t>https://www.kijiji.ca/v-guitar/ottawa/jackson-usa-soloist-sl2mg/1703886761</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Kent Banjo with Stand</t>
+          <t>Huntington classical electric cutaway guitar and case</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>$500.00</t>
+          <t>Please Contact</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/muskoka/kent-banjo-with-stand/1703866102</t>
+          <t>https://www.kijiji.ca/v-guitar/london/huntington-classical-electric-cutaway-guitar-and-case/1703886674</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Ibanez Gio</t>
+          <t>Acoustic Electric Guitar Jay Turner</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>$250.00</t>
+          <t>$265.00</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/ibanez-gio/1686029038</t>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/acoustic-electric-guitar-jay-turner/1703886327</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Donner Electric Guitar New</t>
+          <t>EA44 washburn acoustic electric guitar,  30 year, collectors</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>$215.00</t>
+          <t>$1,299.00</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/donner-electric-guitar-new/1703864976</t>
+          <t>https://www.kijiji.ca/v-guitar/barrie/ea44-washburn-acoustic-electric-guitar-30-year-collectors/1600051791</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Americana Deering Banjo</t>
+          <t>fender thinline w/bareknuckle bootcamp pickups &amp; coil splitter</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>$800.00</t>
+          <t>$1,600.00</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/napanee/americana-deering-banjo/1703864608</t>
+          <t>https://www.kijiji.ca/v-guitar/hamilton/fender-thinline-w-bareknuckle-bootcamp-pickups-coil-splitter/1703885289</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>PRS McCarty 594 SE</t>
+          <t>$6oo -2009 Baby Taylor Swift   - Baby Taylor guitar /  gig bag</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>$750.00</t>
+          <t>$600.00</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/markham-york-region/prs-mccarty-594-se/1703864396</t>
+          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/6oo-2009-baby-taylor-swift-baby-taylor-guitar-gig-bag/1680382381</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Fender Mustang Bass</t>
+          <t>typhoon bass  electric guitar red ,  like new condition</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>$800.00</t>
+          <t>$269.00</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/chatham-kent/fender-mustang-bass/1703864366</t>
+          <t>https://www.kijiji.ca/v-guitar/muskoka/typhoon-bass-electric-guitar-red-like-new-condition/1497202690</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Sigma Guitars DM-15  Acoustic Guitar, Solid Mahogany</t>
+          <t>washburn WI-67 Pro Q 2000's electric guitar , collectors mint</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>$560.00</t>
+          <t>$1,499.00</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/sigma-guitars-dm-15-acoustic-guitar-solid-mahogany/1703864344</t>
+          <t>https://www.kijiji.ca/v-guitar/barrie/washburn-wi-67-pro-q-2000s-electric-guitar-collectors-mint/1681109574</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Gibson Epiphone ES 335 with Vintage Gibson HSC</t>
+          <t>Orillia..ESP.LTD ORION</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>$650.00</t>
+          <t>$1,500.00</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/markham-york-region/gibson-epiphone-es-335-with-vintage-gibson-hsc/1703863804</t>
+          <t>https://www.kijiji.ca/v-guitar/barrie/orillia-esp-ltd-orion/1703884844</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>2016- Seagull S6 Original - Acoustic Guitar - Fantastic Tone</t>
+          <t>Orillia. mim .FENDER 
+P-bass.</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>$450.00</t>
+          <t>$800.00</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/hamilton/2016-seagull-s6-original-acoustic-guitar-fantastic-tone/1703861894</t>
+          <t>https://www.kijiji.ca/v-guitar/barrie/orillia-mim-fender-p-bass/1703884634</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>The Worst Squier Stratocaster in the World</t>
+          <t xml:space="preserve">Orillia. FENDER SQUIER JAZZZ BASS </t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>$80.00</t>
+          <t>$350.00</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/the-worst-squier-stratocaster-in-the-world/1703861395</t>
+          <t>https://www.kijiji.ca/v-guitar/barrie/orillia-fender-squier-jazzz-bass/1703884464</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Gretsch Baritone Guitar</t>
+          <t>Gibson Custom Shop 1942 LG-2 Banner 1 of 35  Acoustic Guitar</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>$500.00</t>
+          <t>$4,500.00</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/gretsch-baritone-guitar/1703861175</t>
+          <t>https://www.kijiji.ca/v-guitar/markham-york-region/gibson-custom-shop-1942-lg-2-banner-1-of-35-acoustic-guitar/1678102104</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>1994 Gibson Les Paul Studio - Wine Red / Seymour Duncan JBJ</t>
+          <t>Orillia..westcreak V</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>$1,000.00</t>
+          <t>$650.00</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-guitar/city-of-toronto/1994-gibson-les-paul-studio-wine-red-seymour-duncan-jbj/1699991711</t>
+          <t>https://www.kijiji.ca/v-guitar/barrie/orillia-westcreak-v/1703884314</t>
         </is>
       </c>
     </row>
